--- a/archivos/Casos de Prueba.xlsx
+++ b/archivos/Casos de Prueba.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Casos de Prueba" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Casos de Prueba" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -419,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D339"/>
+  <dimension ref="A1:D338"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -507,7 +507,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CP 02 - Campo ByteIN - Lógica</t>
+          <t>CP 03 - Campo ByteIN - Lógica</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -532,7 +532,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CP 01 - Campo FechaProceso - Largo del Campo</t>
+          <t>CP 04 - Campo FechaProceso - Largo del Campo</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -557,7 +557,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CP 02 - Campo FechaProceso - Tipo de dato</t>
+          <t>CP 05 - Campo FechaProceso - Tipo de dato</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CP 01 - Campo Registro - Largo del Campo</t>
+          <t>CP 06 - Campo Registro - Largo del Campo</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -607,7 +607,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CP 02 - Campo Registro - Tipo de dato</t>
+          <t>CP 07 - Campo Registro - Tipo de dato</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -632,7 +632,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CP 02 - Campo Registro - Lógica</t>
+          <t>CP 08 - Campo Registro - Lógica</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>CP 01 - Campo Filler - Largo del Campo</t>
+          <t>CP 09 - Campo Filler - Largo del Campo</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -682,7 +682,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>CP 02 - Campo Filler - Tipo de dato</t>
+          <t>CP 010 - Campo Filler - Tipo de dato</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -707,7 +707,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>CP 02 - Campo Filler - Lógica</t>
+          <t>CP 011 - Campo Filler - Lógica</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -732,7 +732,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>CP 01 - Campo Bin - Largo del Campo</t>
+          <t>CP 012 - Campo Bin - Largo del Campo</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -757,7 +757,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>CP 02 - Campo Bin - Tipo de dato</t>
+          <t>CP 013 - Campo Bin - Tipo de dato</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -782,7 +782,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>CP 02 - Campo Bin - Lógica</t>
+          <t>CP 014 - Campo Bin - Lógica</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -807,7 +807,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>CP 01 - Campo PMFD - Tipo MSJ - Largo del Campo</t>
+          <t>CP 015 - Campo PMFD - Tipo MSJ - Largo del Campo</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -832,7 +832,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>CP 02 - Campo PMFD - Tipo MSJ - Tipo de dato</t>
+          <t>CP 016 - Campo PMFD - Tipo MSJ - Tipo de dato</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -857,7 +857,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>CP 02 - Campo PMFD - Tipo MSJ - Requerido</t>
+          <t>CP 017 - Campo PMFD - Tipo MSJ - Requerido</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -882,7 +882,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>CP 02 - Campo PMFD - Tipo MSJ - Lógica</t>
+          <t>CP 018 - Campo PMFD - Tipo MSJ - Lógica</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -907,7 +907,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>CP 01 - Campo PMFD - Numero de tarjeta encriptado AES - Largo del Campo</t>
+          <t>CP 019 - Campo PMFD - Numero de tarjeta encriptado AES - Largo del Campo</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -932,7 +932,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>CP 02 - Campo PMFD - Numero de tarjeta encriptado AES - Tipo de dato</t>
+          <t>CP 020 - Campo PMFD - Numero de tarjeta encriptado AES - Tipo de dato</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -957,7 +957,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>CP 02 - Campo PMFD - Numero de tarjeta encriptado AES - Requerido</t>
+          <t>CP 021 - Campo PMFD - Numero de tarjeta encriptado AES - Requerido</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -982,7 +982,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>CP 01 - Campo PMFD-Cod Trx - Largo del Campo</t>
+          <t>CP 022 - Campo PMFD-Cod Trx - Largo del Campo</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1007,7 +1007,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>CP 02 - Campo PMFD-Cod Trx - Tipo de dato</t>
+          <t>CP 023 - Campo PMFD-Cod Trx - Tipo de dato</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>CP 02 - Campo PMFD-Cod Trx - Requerido</t>
+          <t>CP 024 - Campo PMFD-Cod Trx - Requerido</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1057,7 +1057,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>CP 01 - Campo PMFD-Tipo Cuenta - Largo del Campo</t>
+          <t>CP 025 - Campo PMFD-Tipo Cuenta - Largo del Campo</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1082,7 +1082,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>CP 02 - Campo PMFD-Tipo Cuenta - Tipo de dato</t>
+          <t>CP 026 - Campo PMFD-Tipo Cuenta - Tipo de dato</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1107,7 +1107,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>CP 02 - Campo PMFD-Tipo Cuenta - Requerido</t>
+          <t>CP 027 - Campo PMFD-Tipo Cuenta - Requerido</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1132,7 +1132,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>CP 02 - Campo PMFD-Tipo Cuenta - Lógica</t>
+          <t>CP 028 - Campo PMFD-Tipo Cuenta - Lógica</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>CP 01 - Campo PMFD - Reverso - Largo del Campo</t>
+          <t>CP 029 - Campo PMFD - Reverso - Largo del Campo</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1182,7 +1182,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>CP 02 - Campo PMFD - Reverso - Tipo de dato</t>
+          <t>CP 030 - Campo PMFD - Reverso - Tipo de dato</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1207,7 +1207,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>CP 02 - Campo PMFD - Reverso - Requerido</t>
+          <t>CP 031 - Campo PMFD - Reverso - Requerido</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1232,7 +1232,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>CP 02 - Campo PMFD - Reverso - Lógica</t>
+          <t>CP 032 - Campo PMFD - Reverso - Lógica</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1240,7 +1240,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo tenga la siguiente lógica: ("S", "N").</t>
+Paso n: Validar que el campo tenga la siguiente lógica: SI [Campo "PMFD - Tipo MSJ"] = '0400' or '0420' THEN  'S' ELSE 'N'.</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1257,7 +1257,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>CP 01 - Campo PMFD-Monto en Moneda Local - Largo del Campo</t>
+          <t>CP 033 - Campo PMFD-Monto en Moneda Local - Largo del Campo</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1282,7 +1282,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>CP 02 - Campo PMFD-Monto en Moneda Local - Tipo de dato</t>
+          <t>CP 034 - Campo PMFD-Monto en Moneda Local - Tipo de dato</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1307,7 +1307,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>CP 02 - Campo PMFD-Monto en Moneda Local - Requerido</t>
+          <t>CP 035 - Campo PMFD-Monto en Moneda Local - Requerido</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1332,7 +1332,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>CP 01 - Campo PMFD-Monto Original TRX - Largo del Campo</t>
+          <t>CP 036 - Campo PMFD-Monto Original TRX - Largo del Campo</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1357,7 +1357,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>CP 02 - Campo PMFD-Monto Original TRX - Tipo de dato</t>
+          <t>CP 037 - Campo PMFD-Monto Original TRX - Tipo de dato</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1382,7 +1382,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>CP 02 - Campo PMFD-Monto Original TRX - Requerido</t>
+          <t>CP 038 - Campo PMFD-Monto Original TRX - Requerido</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1407,7 +1407,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>CP 01 - Campo PMFD - Monto Dollar - Largo del Campo</t>
+          <t>CP 039 - Campo PMFD - Monto Dollar - Largo del Campo</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>CP 02 - Campo PMFD - Monto Dollar - Tipo de dato</t>
+          <t>CP 040 - Campo PMFD - Monto Dollar - Tipo de dato</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1457,7 +1457,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>CP 02 - Campo PMFD - Monto Dollar - Requerido</t>
+          <t>CP 041 - Campo PMFD - Monto Dollar - Requerido</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1482,7 +1482,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>CP 01 - Campo PMFD-Fecha&amp;Hora Trasmisión - Largo del Campo</t>
+          <t>CP 042 - Campo PMFD-Fecha&amp;Hora Trasmisión - Largo del Campo</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1507,7 +1507,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>CP 02 - Campo PMFD-Fecha&amp;Hora Trasmisión - Tipo de dato</t>
+          <t>CP 043 - Campo PMFD-Fecha&amp;Hora Trasmisión - Tipo de dato</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1532,7 +1532,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>CP 02 - Campo PMFD-Fecha&amp;Hora Trasmisión - Requerido</t>
+          <t>CP 044 - Campo PMFD-Fecha&amp;Hora Trasmisión - Requerido</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1557,7 +1557,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>CP 01 - Campo PMFD - Tasa Conversión - Largo del Campo</t>
+          <t>CP 045 - Campo PMFD - Tasa Conversión - Largo del Campo</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1582,7 +1582,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>CP 02 - Campo PMFD - Tasa Conversión - Tipo de dato</t>
+          <t>CP 046 - Campo PMFD - Tasa Conversión - Tipo de dato</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1607,7 +1607,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>CP 02 - Campo PMFD - Tasa Conversión - Requerido</t>
+          <t>CP 047 - Campo PMFD - Tasa Conversión - Requerido</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1632,7 +1632,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>CP 01 - Campo PMFD - Número Trx - Largo del Campo</t>
+          <t>CP 048 - Campo PMFD - Número Trx - Largo del Campo</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>CP 02 - Campo PMFD - Número Trx - Tipo de dato</t>
+          <t>CP 049 - Campo PMFD - Número Trx - Tipo de dato</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1682,7 +1682,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>CP 01 - Campo PMFD-Hora TRX - Largo del Campo</t>
+          <t>CP 050 - Campo PMFD-Hora TRX - Largo del Campo</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1707,7 +1707,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>CP 02 - Campo PMFD-Hora TRX - Tipo de dato</t>
+          <t>CP 051 - Campo PMFD-Hora TRX - Tipo de dato</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1732,7 +1732,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>CP 01 - Campo PMFD-Fecha TRX - Largo del Campo</t>
+          <t>CP 052 - Campo PMFD-Fecha TRX - Largo del Campo</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1757,7 +1757,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>CP 02 - Campo PMFD-Fecha TRX - Tipo de dato</t>
+          <t>CP 053 - Campo PMFD-Fecha TRX - Tipo de dato</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1782,7 +1782,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>CP 01 - Campo PMFD-V/to - Largo del Campo</t>
+          <t>CP 054 - Campo PMFD-V/to - Largo del Campo</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -1807,7 +1807,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>CP 02 - Campo PMFD-V/to - Tipo de dato</t>
+          <t>CP 055 - Campo PMFD-V/to - Tipo de dato</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1832,7 +1832,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>CP 01 - Campo PMFD - V/to en BD - Largo del Campo</t>
+          <t>CP 056 - Campo PMFD - V/to en BD - Largo del Campo</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -1857,7 +1857,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>CP 02 - Campo PMFD - V/to en BD - Tipo de dato</t>
+          <t>CP 057 - Campo PMFD - V/to en BD - Tipo de dato</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -1882,7 +1882,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>CP 01 - Campo PMFD - Modo Proceso - Largo del Campo</t>
+          <t>CP 058 - Campo PMFD - Modo Proceso - Largo del Campo</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>CP 02 - Campo PMFD - Modo Proceso - Tipo de dato</t>
+          <t>CP 059 - Campo PMFD - Modo Proceso - Tipo de dato</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -1932,7 +1932,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>CP 01 - Campo PMFD - Fecha Aplicación - Largo del Campo</t>
+          <t>CP 060 - Campo PMFD - Fecha Aplicación - Largo del Campo</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -1957,7 +1957,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>CP 02 - Campo PMFD - Fecha Aplicación - Tipo de dato</t>
+          <t>CP 061 - Campo PMFD - Fecha Aplicación - Tipo de dato</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -1982,7 +1982,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>CP 01 - Campo PMFD-MCC + - Largo del Campo</t>
+          <t>CP 062 - Campo PMFD-MCC + - Largo del Campo</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2007,7 +2007,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>CP 02 - Campo PMFD-MCC + - Tipo de dato</t>
+          <t>CP 063 - Campo PMFD-MCC + - Tipo de dato</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2032,7 +2032,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>CP 01 - Campo PMFD-Cod País Adq - Largo del Campo</t>
+          <t>CP 064 - Campo PMFD-Cod País Adq - Largo del Campo</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2057,7 +2057,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>CP 02 - Campo PMFD-Cod País Adq - Tipo de dato</t>
+          <t>CP 065 - Campo PMFD-Cod País Adq - Tipo de dato</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2082,7 +2082,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>CP 01 - Campo PMFD-Cod País TC - Largo del Campo</t>
+          <t>CP 066 - Campo PMFD-Cod País TC - Largo del Campo</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2107,7 +2107,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>CP 02 - Campo PMFD-Cod País TC - Tipo de dato</t>
+          <t>CP 067 - Campo PMFD-Cod País TC - Tipo de dato</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2132,7 +2132,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>CP 01 - Campo PMFD-Cod País Emisor - Largo del Campo</t>
+          <t>CP 068 - Campo PMFD-Cod País Emisor - Largo del Campo</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2157,7 +2157,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>CP 02 - Campo PMFD-Cod País Emisor - Tipo de dato</t>
+          <t>CP 069 - Campo PMFD-Cod País Emisor - Tipo de dato</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2182,7 +2182,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>CP 01 - Campo PMFD-Entry Mode - Largo del Campo</t>
+          <t>CP 070 - Campo PMFD-Entry Mode - Largo del Campo</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2207,7 +2207,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>CP 02 - Campo PMFD-Entry Mode - Tipo de dato</t>
+          <t>CP 071 - Campo PMFD-Entry Mode - Tipo de dato</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2232,7 +2232,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>CP 01 - Campo PMFD - PIN Entry Capabillity - Largo del Campo</t>
+          <t>CP 072 - Campo PMFD - PIN Entry Capabillity - Largo del Campo</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2257,7 +2257,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>CP 02 - Campo PMFD - PIN Entry Capabillity - Tipo de dato</t>
+          <t>CP 073 - Campo PMFD - PIN Entry Capabillity - Tipo de dato</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2282,7 +2282,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>CP 01 - Campo Tarjeta_Registro_750 - Largo del Campo</t>
+          <t>CP 074 - Campo Tarjeta_Registro_750 - Largo del Campo</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2307,7 +2307,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>CP 02 - Campo Tarjeta_Registro_750 - Tipo de dato</t>
+          <t>CP 075 - Campo Tarjeta_Registro_750 - Tipo de dato</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2332,7 +2332,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>CP 01 - Campo PMFD - Condición Pto Venta - Largo del Campo</t>
+          <t>CP 076 - Campo PMFD - Condición Pto Venta - Largo del Campo</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -2357,7 +2357,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>CP 02 - Campo PMFD - Condición Pto Venta - Tipo de dato</t>
+          <t>CP 077 - Campo PMFD - Condición Pto Venta - Tipo de dato</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -2382,7 +2382,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>CP 01 - Campo PMFD-ID Adq - Largo del Campo</t>
+          <t>CP 078 - Campo PMFD-ID Adq - Largo del Campo</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -2407,7 +2407,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>CP 02 - Campo PMFD-ID Adq - Tipo de dato</t>
+          <t>CP 079 - Campo PMFD-ID Adq - Tipo de dato</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -2432,7 +2432,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>CP 01 - Campo PMFD - ID Organizacion - Largo del Campo</t>
+          <t>CP 080 - Campo PMFD - ID Organizacion - Largo del Campo</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -2457,7 +2457,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>CP 02 - Campo PMFD - ID Organizacion - Tipo de dato</t>
+          <t>CP 081 - Campo PMFD - ID Organizacion - Tipo de dato</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -2482,7 +2482,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>CP 01 - Campo PMFD - ID Banco Destino - Largo del Campo</t>
+          <t>CP 082 - Campo PMFD - ID Banco Destino - Largo del Campo</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -2507,7 +2507,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>CP 02 - Campo PMFD - ID Banco Destino - Tipo de dato</t>
+          <t>CP 083 - Campo PMFD - ID Banco Destino - Tipo de dato</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -2532,7 +2532,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>CP 01 - Campo PMFD - FIID Autorizador - Largo del Campo</t>
+          <t>CP 084 - Campo PMFD - FIID Autorizador - Largo del Campo</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -2557,7 +2557,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>CP 02 - Campo PMFD - FIID Autorizador - Tipo de dato</t>
+          <t>CP 085 - Campo PMFD - FIID Autorizador - Tipo de dato</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -2582,7 +2582,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>CP 02 - Campo PMFD - FIID Autorizador - Lógica</t>
+          <t>CP 086 - Campo PMFD - FIID Autorizador - Lógica</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -2590,7 +2590,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo tenga la siguiente lógica: "000002" SI (Campo "PMFD - Tipo MSJ" = '0220' o '0120') Si no '000001'.</t>
+Paso n: Validar que el campo tenga la siguiente lógica: SI [Campo "PMFD - Tipo MSJ"] = '0220' or '0120' THEN '000002' ELSE '000001'.</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2607,7 +2607,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>CP 01 - Campo PMFD-Autorización - Largo del Campo</t>
+          <t>CP 087 - Campo PMFD-Autorización - Largo del Campo</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>CP 02 - Campo PMFD-Autorización - Tipo de dato</t>
+          <t>CP 088 - Campo PMFD-Autorización - Tipo de dato</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -2657,7 +2657,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>CP 01 - Campo PMFD-Cod Rpta - Largo del Campo</t>
+          <t>CP 089 - Campo PMFD-Cod Rpta - Largo del Campo</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -2682,7 +2682,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>CP 02 - Campo PMFD-Cod Rpta - Tipo de dato</t>
+          <t>CP 090 - Campo PMFD-Cod Rpta - Tipo de dato</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -2707,7 +2707,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>CP 01 - Campo PMFD - Razón Respuesta - Largo del Campo</t>
+          <t>CP 091 - Campo PMFD - Razón Respuesta - Largo del Campo</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -2732,7 +2732,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>CP 02 - Campo PMFD - Razón Respuesta - Tipo de dato</t>
+          <t>CP 092 - Campo PMFD - Razón Respuesta - Tipo de dato</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -2757,7 +2757,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>CP 01 - Campo PMFD - Código de Servicio - Largo del Campo</t>
+          <t>CP 093 - Campo PMFD - Código de Servicio - Largo del Campo</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -2782,7 +2782,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>CP 02 - Campo PMFD - Código de Servicio - Tipo de dato</t>
+          <t>CP 094 - Campo PMFD - Código de Servicio - Tipo de dato</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -2807,7 +2807,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>CP 01 - Campo PMFD-ID Terminal/Direccion IP - Largo del Campo</t>
+          <t>CP 095 - Campo PMFD-ID Terminal/Direccion IP - Largo del Campo</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -2832,7 +2832,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>CP 02 - Campo PMFD-ID Terminal/Direccion IP - Tipo de dato</t>
+          <t>CP 096 - Campo PMFD-ID Terminal/Direccion IP - Tipo de dato</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -2857,7 +2857,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>CP 01 - Campo PMFD-Código CIO/Agencia/Oficina Origen - Largo del Campo</t>
+          <t>CP 097 - Campo PMFD-Código CIO/Agencia/Oficina Origen - Largo del Campo</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -2882,7 +2882,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>CP 02 - Campo PMFD-Código CIO/Agencia/Oficina Origen - Tipo de dato</t>
+          <t>CP 098 - Campo PMFD-Código CIO/Agencia/Oficina Origen - Tipo de dato</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -2907,7 +2907,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>CP 01 - Campo PMFD-Nombre/Localización Comercio - Largo del Campo</t>
+          <t>CP 099 - Campo PMFD-Nombre/Localización Comercio - Largo del Campo</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -2932,7 +2932,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>CP 02 - Campo PMFD-Nombre/Localización Comercio - Tipo de dato</t>
+          <t>CP 0100 - Campo PMFD-Nombre/Localización Comercio - Tipo de dato</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -2957,7 +2957,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>CP 02 - Campo PMFD-Nombre/Localización Comercio - Lógica</t>
+          <t>CP 0101 - Campo PMFD-Nombre/Localización Comercio - Lógica</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -2982,7 +2982,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>CP 01 - Campo PMFD-Estado o Departamento - Largo del Campo</t>
+          <t>CP 0102 - Campo PMFD-Estado o Departamento - Largo del Campo</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -3007,7 +3007,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>CP 02 - Campo PMFD-Estado o Departamento - Tipo de dato</t>
+          <t>CP 0103 - Campo PMFD-Estado o Departamento - Tipo de dato</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -3032,7 +3032,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>CP 02 - Campo PMFD-Estado o Departamento - Lógica</t>
+          <t>CP 0104 - Campo PMFD-Localidad Comercio - Largo del Campo</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -3040,7 +3040,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo tenga la siguiente lógica: Nombre del Estado, Departamento o Provincia donde se encuentra ubicada la Terminal POS / ATM..</t>
+Paso n: Validar que el campo tenga un largo de 13 caracteres.</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -3057,7 +3057,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>CP 01 - Campo PMFD-Localidad Comercio - Largo del Campo</t>
+          <t>CP 0105 - Campo PMFD-Localidad Comercio - Tipo de dato</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -3065,7 +3065,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo tenga un largo de 13 caracteres.</t>
+Paso n: Validar que el campo sea Alfanumérico.</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -3082,7 +3082,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>CP 02 - Campo PMFD-Localidad Comercio - Tipo de dato</t>
+          <t>CP 0106 - Campo PMFD - País Origen - Largo del Campo</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -3090,7 +3090,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo sea Alfanumérico.</t>
+Paso n: Validar que el campo tenga un largo de 3 caracteres.</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -3107,7 +3107,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>CP 01 - Campo PMFD - País Origen - Largo del Campo</t>
+          <t>CP 0107 - Campo PMFD - País Origen - Tipo de dato</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -3115,7 +3115,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo tenga un largo de 3 caracteres.</t>
+Paso n: Validar que el campo sea Alfanumérico.</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -3132,7 +3132,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>CP 02 - Campo PMFD - País Origen - Tipo de dato</t>
+          <t>CP 0108 - Campo PMFD-ID Comercio - Largo del Campo</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -3140,7 +3140,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo sea Alfanumérico.</t>
+Paso n: Validar que el campo tenga un largo de 15 caracteres.</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -3157,7 +3157,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>CP 01 - Campo PMFD-ID Comercio - Largo del Campo</t>
+          <t>CP 0109 - Campo PMFD-ID Comercio - Tipo de dato</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -3165,7 +3165,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo tenga un largo de 15 caracteres.</t>
+Paso n: Validar que el campo sea Alfanumérico.</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -3182,7 +3182,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>CP 02 - Campo PMFD-ID Comercio - Tipo de dato</t>
+          <t>CP 0110 - Campo PMFD - Dirección / Posición GPS - Largo del Campo</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -3190,7 +3190,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo sea Alfanumérico.</t>
+Paso n: Validar que el campo tenga un largo de 25 caracteres.</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -3207,7 +3207,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>CP 01 - Campo PMFD - Dirección / Posición GPS - Largo del Campo</t>
+          <t>CP 0111 - Campo PMFD - Dirección / Posición GPS - Tipo de dato</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -3215,7 +3215,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo tenga un largo de 25 caracteres.</t>
+Paso n: Validar que el campo sea Alfanumérico.</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -3232,7 +3232,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>CP 02 - Campo PMFD - Dirección / Posición GPS - Tipo de dato</t>
+          <t>CP 0112 - Campo PMFD - Indicador E-Comerce - Largo del Campo</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -3240,7 +3240,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo sea Alfanumérico.</t>
+Paso n: Validar que el campo tenga un largo de 1 caracteres.</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -3257,7 +3257,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>CP 01 - Campo PMFD - Indicador E-Comerce - Largo del Campo</t>
+          <t>CP 0113 - Campo PMFD - Indicador E-Comerce - Tipo de dato</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -3265,7 +3265,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo tenga un largo de 1 caracteres.</t>
+Paso n: Validar que el campo sea Alfanumérico.</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -3282,7 +3282,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>CP 02 - Campo PMFD - Indicador E-Comerce - Tipo de dato</t>
+          <t>CP 0114 - Campo PMFD - Indicador Cash-Back - Largo del Campo</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -3290,7 +3290,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo sea Alfanumérico.</t>
+Paso n: Validar que el campo tenga un largo de 1 caracteres.</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -3307,7 +3307,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>CP 01 - Campo PMFD - Indicador Cash-Back - Largo del Campo</t>
+          <t>CP 0115 - Campo PMFD - Indicador Cash-Back - Tipo de dato</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -3315,7 +3315,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo tenga un largo de 1 caracteres.</t>
+Paso n: Validar que el campo sea Alfanumérico.</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -3332,7 +3332,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>CP 02 - Campo PMFD - Indicador Cash-Back - Tipo de dato</t>
+          <t>CP 0116 - Campo PMFD - Indicador Cash-Back - Lógica</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -3340,7 +3340,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo sea Alfanumérico.</t>
+Paso n: Validar que el campo tenga la siguiente lógica: ("N").</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -3357,7 +3357,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>CP 02 - Campo PMFD - Indicador Cash-Back - Lógica</t>
+          <t>CP 0117 - Campo PMFD - Tipo Prod TC - Largo del Campo</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -3365,7 +3365,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo tenga la siguiente lógica: ("N").</t>
+Paso n: Validar que el campo tenga un largo de 3 caracteres.</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -3382,7 +3382,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>CP 01 - Campo PMFD - Tipo Prod TC - Largo del Campo</t>
+          <t>CP 0118 - Campo PMFD - Tipo Prod TC - Tipo de dato</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -3390,7 +3390,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo tenga un largo de 3 caracteres.</t>
+Paso n: Validar que el campo sea Alfanumérico.</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -3407,7 +3407,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>CP 02 - Campo PMFD - Tipo Prod TC - Tipo de dato</t>
+          <t>CP 0119 - Campo PMFD - Nombre Cliente: Track 1 - Largo del Campo</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -3415,7 +3415,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo sea Alfanumérico.</t>
+Paso n: Validar que el campo tenga un largo de 25 caracteres.</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -3432,7 +3432,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>CP 01 - Campo PMFD - Nombre Cliente: Track 1 - Largo del Campo</t>
+          <t>CP 0120 - Campo PMFD - Nombre Cliente: Track 1 - Tipo de dato</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -3440,7 +3440,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo tenga un largo de 25 caracteres.</t>
+Paso n: Validar que el campo sea Alfanumérico.</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -3457,7 +3457,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>CP 02 - Campo PMFD - Nombre Cliente: Track 1 - Tipo de dato</t>
+          <t>CP 0121 - Campo PMFD - Nombre Cliente: BD Track 1 - Largo del Campo</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -3465,7 +3465,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo sea Alfanumérico.</t>
+Paso n: Validar que el campo tenga un largo de 25 caracteres.</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -3482,7 +3482,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>CP 01 - Campo PMFD - Nombre Cliente: BD Track 1 - Largo del Campo</t>
+          <t>CP 0122 - Campo PMFD - Nombre Cliente: BD Track 1 - Tipo de dato</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -3490,7 +3490,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo tenga un largo de 25 caracteres.</t>
+Paso n: Validar que el campo sea Alfanumérico.</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -3507,7 +3507,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>CP 02 - Campo PMFD - Nombre Cliente: BD Track 1 - Tipo de dato</t>
+          <t>CP 0123 - Campo PMFD - Cod Moneda Trx - Largo del Campo</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -3515,7 +3515,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo sea Alfanumérico.</t>
+Paso n: Validar que el campo tenga un largo de 3 caracteres.</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -3532,7 +3532,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>CP 01 - Campo PMFD - Cod Moneda Trx - Largo del Campo</t>
+          <t>CP 0124 - Campo PMFD - Cod Moneda Trx - Tipo de dato</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -3540,7 +3540,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo tenga un largo de 3 caracteres.</t>
+Paso n: Validar que el campo sea Numérico.</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -3557,7 +3557,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>CP 02 - Campo PMFD - Cod Moneda Trx - Tipo de dato</t>
+          <t>CP 0125 - Campo PMFD - Cod Moneda TH - Largo del Campo</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -3565,7 +3565,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo sea Numérico.</t>
+Paso n: Validar que el campo tenga un largo de 3 caracteres.</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -3582,7 +3582,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>CP 01 - Campo PMFD - Cod Moneda TH - Largo del Campo</t>
+          <t>CP 0126 - Campo PMFD - Cod Moneda TH - Tipo de dato</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -3590,7 +3590,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo tenga un largo de 3 caracteres.</t>
+Paso n: Validar que el campo sea Numérico.</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -3607,7 +3607,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>CP 02 - Campo PMFD - Cod Moneda TH - Tipo de dato</t>
+          <t>CP 0127 - Campo PMFD - Saldo Disponible en Moneda Trx - Largo del Campo</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -3615,7 +3615,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo sea Numérico.</t>
+Paso n: Validar que el campo tenga un largo de 12 caracteres.</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -3632,7 +3632,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>CP 01 - Campo PMFD - Saldo Disponible en Moneda Trx - Largo del Campo</t>
+          <t>CP 0128 - Campo PMFD - Saldo Disponible en Moneda Trx - Tipo de dato</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -3640,7 +3640,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo tenga un largo de 12 caracteres.</t>
+Paso n: Validar que el campo sea Numérico.</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -3657,7 +3657,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>CP 02 - Campo PMFD - Saldo Disponible en Moneda Trx - Tipo de dato</t>
+          <t>CP 0129 - Campo PMFD - Cupo Tarjeta en Moneda Trx - Largo del Campo</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -3665,7 +3665,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo sea Numérico.</t>
+Paso n: Validar que el campo tenga un largo de 12 caracteres.</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -3682,7 +3682,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>CP 01 - Campo PMFD - Cupo Tarjeta en Moneda Trx - Largo del Campo</t>
+          <t>CP 0130 - Campo PMFD - Cupo Tarjeta en Moneda Trx - Tipo de dato</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -3690,7 +3690,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo tenga un largo de 12 caracteres.</t>
+Paso n: Validar que el campo sea Numérico.</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -3707,7 +3707,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>CP 02 - Campo PMFD - Cupo Tarjeta en Moneda Trx - Tipo de dato</t>
+          <t>CP 0131 - Campo PMFD - Cta Origen - Largo del Campo</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -3715,7 +3715,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo sea Numérico.</t>
+Paso n: Validar que el campo tenga un largo de 23 caracteres.</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -3732,7 +3732,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>CP 01 - Campo PMFD - Cta Origen - Largo del Campo</t>
+          <t>CP 0132 - Campo PMFD - Cta Origen - Tipo de dato</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -3740,7 +3740,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo tenga un largo de 23 caracteres.</t>
+Paso n: Validar que el campo sea Alfanumérico.</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -3757,7 +3757,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>CP 02 - Campo PMFD - Cta Origen - Tipo de dato</t>
+          <t>CP 0133 - Campo PMFD - Cta Transfer - Largo del Campo</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -3765,7 +3765,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo sea Alfanumérico.</t>
+Paso n: Validar que el campo tenga un largo de 23 caracteres.</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -3782,7 +3782,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>CP 01 - Campo PMFD - Cta Transfer - Largo del Campo</t>
+          <t>CP 0134 - Campo PMFD - Cta Transfer - Tipo de dato</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -3790,7 +3790,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo tenga un largo de 23 caracteres.</t>
+Paso n: Validar que el campo sea Alfanumérico.</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -3807,7 +3807,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>CP 02 - Campo PMFD - Cta Transfer - Tipo de dato</t>
+          <t>CP 0135 - Campo PMFD - ID Cliente Destino - Largo del Campo</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -3815,7 +3815,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo sea Alfanumérico.</t>
+Paso n: Validar que el campo tenga un largo de 15 caracteres.</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>CP 01 - Campo PMFD - ID Cliente Destino - Largo del Campo</t>
+          <t>CP 0136 - Campo PMFD - ID Cliente Destino - Tipo de dato</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -3840,7 +3840,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo tenga un largo de 15 caracteres.</t>
+Paso n: Validar que el campo sea Alfanumérico.</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -3857,7 +3857,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>CP 02 - Campo PMFD - ID Cliente Destino - Tipo de dato</t>
+          <t>CP 0137 - Campo PMFD - Tipo ID Destino / Beneficiario - Largo del Campo</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -3865,7 +3865,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo sea Alfanumérico.</t>
+Paso n: Validar que el campo tenga un largo de 3 caracteres.</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -3882,7 +3882,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>CP 01 - Campo PMFD - Tipo ID Destino / Beneficiario - Largo del Campo</t>
+          <t>CP 0138 - Campo PMFD - Tipo ID Destino / Beneficiario - Tipo de dato</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -3890,7 +3890,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo tenga un largo de 3 caracteres.</t>
+Paso n: Validar que el campo sea Alfanumérico.</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -3907,7 +3907,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>CP 02 - Campo PMFD - Tipo ID Destino / Beneficiario - Tipo de dato</t>
+          <t>CP 0139 - Campo PMFD - Tipo ID Destino / Beneficiario - Lógica</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -3915,7 +3915,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo sea Alfanumérico.</t>
+Paso n: Validar que el campo tenga la siguiente lógica: ("1", " ").</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -3932,7 +3932,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>CP 02 - Campo PMFD - Tipo ID Destino / Beneficiario - Lógica</t>
+          <t>CP 0140 - Campo PMFD - ARC/ Referencia Universal - Largo del Campo</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -3940,7 +3940,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo tenga la siguiente lógica: ("1", " ").</t>
+Paso n: Validar que el campo tenga un largo de 25 caracteres.</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -3957,7 +3957,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>CP 01 - Campo PMFD - ARC/ Referencia Universal - Largo del Campo</t>
+          <t>CP 0141 - Campo PMFD - ARC/ Referencia Universal - Tipo de dato</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -3965,7 +3965,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo tenga un largo de 25 caracteres.</t>
+Paso n: Validar que el campo sea Alfanumérico.</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -3982,7 +3982,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>CP 02 - Campo PMFD - ARC/ Referencia Universal - Tipo de dato</t>
+          <t>CP 0142 - Campo PMFD - Referencia 2 - Largo del Campo</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -3990,7 +3990,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo sea Alfanumérico.</t>
+Paso n: Validar que el campo tenga un largo de 25 caracteres.</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -4007,7 +4007,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>CP 01 - Campo PMFD - Referencia 2 - Largo del Campo</t>
+          <t>CP 0143 - Campo PMFD - Referencia 2 - Tipo de dato</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -4015,7 +4015,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo tenga un largo de 25 caracteres.</t>
+Paso n: Validar que el campo sea Alfanumérico.</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -4032,7 +4032,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>CP 02 - Campo PMFD - Referencia 2 - Tipo de dato</t>
+          <t>CP 0144 - Campo PMFD - Referencia 3 - Largo del Campo</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -4040,7 +4040,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo sea Alfanumérico.</t>
+Paso n: Validar que el campo tenga un largo de 25 caracteres.</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -4057,7 +4057,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>CP 01 - Campo PMFD - Referencia 3 - Largo del Campo</t>
+          <t>CP 0145 - Campo PMFD - Referencia 3 - Tipo de dato</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -4065,7 +4065,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo tenga un largo de 25 caracteres.</t>
+Paso n: Validar que el campo sea Alfanumérico.</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -4082,7 +4082,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>CP 02 - Campo PMFD - Referencia 3 - Tipo de dato</t>
+          <t>CP 0146 - Campo PMFD - Referencia 4 - Largo del Campo</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -4090,7 +4090,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo sea Alfanumérico.</t>
+Paso n: Validar que el campo tenga un largo de 25 caracteres.</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -4107,7 +4107,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>CP 01 - Campo PMFD - Referencia 4 - Largo del Campo</t>
+          <t>CP 0147 - Campo PMFD - Referencia 4 - Tipo de dato</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -4115,7 +4115,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo tenga un largo de 25 caracteres.</t>
+Paso n: Validar que el campo sea Alfanumérico.</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -4132,7 +4132,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>CP 02 - Campo PMFD - Referencia 4 - Tipo de dato</t>
+          <t>CP 0148 - Campo PMFD - Referencia 5 - Largo del Campo</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -4140,7 +4140,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo sea Alfanumérico.</t>
+Paso n: Validar que el campo tenga un largo de 25 caracteres.</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -4157,7 +4157,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>CP 01 - Campo PMFD - Referencia 5 - Largo del Campo</t>
+          <t>CP 0149 - Campo PMFD - Referencia 5 - Tipo de dato</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -4165,7 +4165,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo tenga un largo de 25 caracteres.</t>
+Paso n: Validar que el campo sea Alfanumérico.</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -4182,7 +4182,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>CP 02 - Campo PMFD - Referencia 5 - Tipo de dato</t>
+          <t>CP 0150 - Campo PMFD - Organizacion - Largo del Campo</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -4190,7 +4190,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo sea Alfanumérico.</t>
+Paso n: Validar que el campo tenga un largo de 6 caracteres.</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -4207,7 +4207,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>CP 01 - Campo PMFD - Organizacion - Largo del Campo</t>
+          <t>CP 0151 - Campo PMFD - Organizacion - Tipo de dato</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -4215,7 +4215,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo tenga un largo de 6 caracteres.</t>
+Paso n: Validar que el campo sea Alfanumérico.</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -4232,7 +4232,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>CP 02 - Campo PMFD - Organizacion - Tipo de dato</t>
+          <t>CP 0152 - Campo PMFD-Bin + - Largo del Campo</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -4240,7 +4240,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo sea Alfanumérico.</t>
+Paso n: Validar que el campo tenga un largo de 6 caracteres.</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -4257,7 +4257,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>CP 01 - Campo PMFD-Bin + - Largo del Campo</t>
+          <t>CP 0153 - Campo PMFD-Bin + - Tipo de dato</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -4265,7 +4265,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo tenga un largo de 6 caracteres.</t>
+Paso n: Validar que el campo sea Alfanumérico.</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -4282,7 +4282,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>CP 02 - Campo PMFD-Bin + - Tipo de dato</t>
+          <t>CP 0154 - Campo PMFD-Bin + - Lógica</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -4290,7 +4290,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo sea Alfanumérico.</t>
+Paso n: Validar que el campo tenga la siguiente lógica: Primeros 6 Dígitos del campo "PMFD - Numero de tarjeta encriptado AES".</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -4307,7 +4307,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>CP 02 - Campo PMFD-Bin + - Lógica</t>
+          <t>CP 0155 - Campo PMFD-Estado / Situación / Bloqueo Tarjeta - Largo del Campo</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -4315,7 +4315,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo tenga la siguiente lógica: Primeros 6 Dígitos del campo "PMFD - Numero de tarjeta encriptado AES".</t>
+Paso n: Validar que el campo tenga un largo de 2 caracteres.</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -4332,7 +4332,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>CP 01 - Campo PMFD-Estado / Situación / Bloqueo Tarjeta - Largo del Campo</t>
+          <t>CP 0156 - Campo PMFD-Estado / Situación / Bloqueo Tarjeta - Tipo de dato</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -4340,7 +4340,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo tenga un largo de 2 caracteres.</t>
+Paso n: Validar que el campo sea Alfanumérico.</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -4357,7 +4357,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>CP 02 - Campo PMFD-Estado / Situación / Bloqueo Tarjeta - Tipo de dato</t>
+          <t>CP 0157 - Campo PMFD - Característica TC - Largo del Campo</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -4365,7 +4365,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo sea Alfanumérico.</t>
+Paso n: Validar que el campo tenga un largo de 1 caracteres.</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -4382,7 +4382,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>CP 01 - Campo PMFD - Característica TC - Largo del Campo</t>
+          <t>CP 0158 - Campo PMFD - Característica TC - Tipo de dato</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -4390,7 +4390,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo tenga un largo de 1 caracteres.</t>
+Paso n: Validar que el campo sea Alfanumérico.</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -4407,7 +4407,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>CP 02 - Campo PMFD - Característica TC - Tipo de dato</t>
+          <t>CP 0159 - Campo PMFD - Característica TC - Lógica</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -4415,7 +4415,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo sea Alfanumérico.</t>
+Paso n: Validar que el campo tenga la siguiente lógica: ("D", "V", "C", "B", "E",  "N").</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -4432,7 +4432,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>CP 02 - Campo PMFD - Característica TC - Lógica</t>
+          <t>CP 0160 - Campo PMFD - Miembro - Largo del Campo</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -4440,7 +4440,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo tenga la siguiente lógica: ("D", "V", "C", "B", "E",  "N").</t>
+Paso n: Validar que el campo tenga un largo de 1 caracteres.</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -4457,7 +4457,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>CP 01 - Campo PMFD - Miembro - Largo del Campo</t>
+          <t>CP 0161 - Campo PMFD - Miembro - Tipo de dato</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -4465,7 +4465,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo tenga un largo de 1 caracteres.</t>
+Paso n: Validar que el campo sea Alfanumérico.</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -4482,7 +4482,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>CP 02 - Campo PMFD - Miembro - Tipo de dato</t>
+          <t>CP 0162 - Campo PMFD - Límite Crédito Diario - Largo del Campo</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -4490,7 +4490,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo sea Alfanumérico.</t>
+Paso n: Validar que el campo tenga un largo de 12 caracteres.</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -4507,7 +4507,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>CP 01 - Campo PMFD - Límite Crédito Diario - Largo del Campo</t>
+          <t>CP 0163 - Campo PMFD - Límite Crédito Diario - Tipo de dato</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -4515,7 +4515,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo tenga un largo de 12 caracteres.</t>
+Paso n: Validar que el campo sea Numérico.</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -4532,7 +4532,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>CP 02 - Campo PMFD - Límite Crédito Diario - Tipo de dato</t>
+          <t>CP 0164 - Campo PMFD - Puntos o Millas - Largo del Campo</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -4540,7 +4540,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo sea Numérico.</t>
+Paso n: Validar que el campo tenga un largo de 12 caracteres.</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -4557,7 +4557,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>CP 01 - Campo PMFD - Puntos o Millas - Largo del Campo</t>
+          <t>CP 0165 - Campo PMFD - Puntos o Millas - Tipo de dato</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -4565,7 +4565,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo tenga un largo de 12 caracteres.</t>
+Paso n: Validar que el campo sea Numérico.</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -4582,7 +4582,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>CP 02 - Campo PMFD - Puntos o Millas - Tipo de dato</t>
+          <t>CP 0166 - Campo PMFD - Oficina Radicación Tarjeta - Largo del Campo</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -4590,7 +4590,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo sea Numérico.</t>
+Paso n: Validar que el campo tenga un largo de 6 caracteres.</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -4607,7 +4607,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>CP 01 - Campo PMFD - Oficina Radicación Tarjeta - Largo del Campo</t>
+          <t>CP 0167 - Campo PMFD - Oficina Radicación Tarjeta - Tipo de dato</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -4615,7 +4615,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo tenga un largo de 6 caracteres.</t>
+Paso n: Validar que el campo sea Alfanumérico.</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -4632,7 +4632,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>CP 02 - Campo PMFD - Oficina Radicación Tarjeta - Tipo de dato</t>
+          <t>CP 0168 - Campo PMFD - Oficina Radicación Tarjeta - Lógica</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -4640,7 +4640,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo sea Alfanumérico.</t>
+Paso n: Validar que el campo tenga la siguiente lógica: ("ATM", "POS").</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -4657,7 +4657,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>CP 02 - Campo PMFD - Oficina Radicación Tarjeta - Lógica</t>
+          <t>CP 0169 - Campo PMFD - Ciudad Radicación TH /Ciudad Cliente - Largo del Campo</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -4665,7 +4665,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo tenga la siguiente lógica: ("ATM", "POS").</t>
+Paso n: Validar que el campo tenga un largo de 13 caracteres.</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
@@ -4682,7 +4682,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>CP 01 - Campo PMFD - Ciudad Radicación TH /Ciudad Cliente - Largo del Campo</t>
+          <t>CP 0170 - Campo PMFD - Ciudad Radicación TH /Ciudad Cliente - Tipo de dato</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -4690,7 +4690,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo tenga un largo de 13 caracteres.</t>
+Paso n: Validar que el campo sea Alfanumérico.</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
@@ -4707,7 +4707,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>CP 02 - Campo PMFD - Ciudad Radicación TH /Ciudad Cliente - Tipo de dato</t>
+          <t>CP 0171 - Campo PMFD - Tipo ID Cliente - Largo del Campo</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -4715,7 +4715,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo sea Alfanumérico.</t>
+Paso n: Validar que el campo tenga un largo de 3 caracteres.</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -4732,7 +4732,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>CP 01 - Campo PMFD - Tipo ID Cliente - Largo del Campo</t>
+          <t>CP 0172 - Campo PMFD - Tipo ID Cliente - Tipo de dato</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -4740,7 +4740,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo tenga un largo de 3 caracteres.</t>
+Paso n: Validar que el campo sea Alfanumérico.</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -4757,7 +4757,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>CP 02 - Campo PMFD - Tipo ID Cliente - Tipo de dato</t>
+          <t>CP 0173 - Campo PMFD - Código Cliente - Largo del Campo</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -4765,7 +4765,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo sea Alfanumérico.</t>
+Paso n: Validar que el campo tenga un largo de 15 caracteres.</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -4782,7 +4782,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>CP 01 - Campo PMFD - Código Cliente - Largo del Campo</t>
+          <t>CP 0174 - Campo PMFD - Código Cliente - Tipo de dato</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -4790,7 +4790,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo tenga un largo de 15 caracteres.</t>
+Paso n: Validar que el campo sea Alfanumérico.</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
@@ -4807,7 +4807,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>CP 02 - Campo PMFD - Código Cliente - Tipo de dato</t>
+          <t>CP 0175 - Campo PMFD - Primer Nombre Cliente - Largo del Campo</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -4815,7 +4815,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo sea Alfanumérico.</t>
+Paso n: Validar que el campo tenga un largo de 12 caracteres.</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -4832,7 +4832,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>CP 01 - Campo PMFD - Primer Nombre Cliente - Largo del Campo</t>
+          <t>CP 0176 - Campo PMFD - Primer Nombre Cliente - Tipo de dato</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -4840,7 +4840,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo tenga un largo de 12 caracteres.</t>
+Paso n: Validar que el campo sea Alfanumérico.</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
@@ -4857,7 +4857,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>CP 02 - Campo PMFD - Primer Nombre Cliente - Tipo de dato</t>
+          <t>CP 0177 - Campo PMFD - Segundo Nombre Cliente - Largo del Campo</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -4865,7 +4865,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo sea Alfanumérico.</t>
+Paso n: Validar que el campo tenga un largo de 12 caracteres.</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -4882,7 +4882,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>CP 01 - Campo PMFD - Segundo Nombre Cliente - Largo del Campo</t>
+          <t>CP 0178 - Campo PMFD - Segundo Nombre Cliente - Tipo de dato</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -4890,7 +4890,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo tenga un largo de 12 caracteres.</t>
+Paso n: Validar que el campo sea Alfanumérico.</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -4907,7 +4907,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>CP 02 - Campo PMFD - Segundo Nombre Cliente - Tipo de dato</t>
+          <t>CP 0179 - Campo PMFD - Primer Apellido Cliente - Largo del Campo</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -4915,7 +4915,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo sea Alfanumérico.</t>
+Paso n: Validar que el campo tenga un largo de 12 caracteres.</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -4932,7 +4932,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>CP 01 - Campo PMFD - Primer Apellido Cliente - Largo del Campo</t>
+          <t>CP 0180 - Campo PMFD - Primer Apellido Cliente - Tipo de dato</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -4940,7 +4940,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo tenga un largo de 12 caracteres.</t>
+Paso n: Validar que el campo sea Alfanumérico.</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
@@ -4957,7 +4957,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>CP 02 - Campo PMFD - Primer Apellido Cliente - Tipo de dato</t>
+          <t>CP 0181 - Campo PMFD - Segundo Apellido Cliente - Largo del Campo</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -4965,7 +4965,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo sea Alfanumérico.</t>
+Paso n: Validar que el campo tenga un largo de 12 caracteres.</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -4982,7 +4982,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>CP 01 - Campo PMFD - Segundo Apellido Cliente - Largo del Campo</t>
+          <t>CP 0182 - Campo PMFD - Segundo Apellido Cliente - Tipo de dato</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -4990,7 +4990,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo tenga un largo de 12 caracteres.</t>
+Paso n: Validar que el campo sea Alfanumérico.</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -5007,7 +5007,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>CP 02 - Campo PMFD - Segundo Apellido Cliente - Tipo de dato</t>
+          <t>CP 0183 - Campo PMFD-ID Cliente - Largo del Campo</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -5015,7 +5015,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo sea Alfanumérico.</t>
+Paso n: Validar que el campo tenga un largo de 15 caracteres.</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>CP 01 - Campo PMFD-ID Cliente - Largo del Campo</t>
+          <t>CP 0184 - Campo PMFD-ID Cliente - Tipo de dato</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -5040,7 +5040,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo tenga un largo de 15 caracteres.</t>
+Paso n: Validar que el campo sea Alfanumérico.</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
@@ -5057,7 +5057,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>CP 02 - Campo PMFD-ID Cliente - Tipo de dato</t>
+          <t>CP 0185 - Campo PMFD - Fecha de Nacimiento - Largo del Campo</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -5065,7 +5065,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo sea Alfanumérico.</t>
+Paso n: Validar que el campo tenga un largo de 8 caracteres.</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -5082,7 +5082,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>CP 01 - Campo PMFD - Fecha de Nacimiento - Largo del Campo</t>
+          <t>CP 0186 - Campo PMFD - Fecha de Nacimiento - Tipo de dato</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -5090,7 +5090,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo tenga un largo de 8 caracteres.</t>
+Paso n: Validar que el campo sea Numérico.</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
@@ -5107,7 +5107,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>CP 02 - Campo PMFD - Fecha de Nacimiento - Tipo de dato</t>
+          <t>CP 0187 - Campo PMFD - Debito o Credito - Largo del Campo</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -5115,7 +5115,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo sea Numérico.</t>
+Paso n: Validar que el campo tenga un largo de 2 caracteres.</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -5132,7 +5132,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>CP 01 - Campo PMFD - Debito o Credito - Largo del Campo</t>
+          <t>CP 0188 - Campo PMFD - Debito o Credito - Tipo de dato</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -5140,7 +5140,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo tenga un largo de 2 caracteres.</t>
+Paso n: Validar que el campo sea Alfanumérico.</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
@@ -5157,7 +5157,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>CP 02 - Campo PMFD - Debito o Credito - Tipo de dato</t>
+          <t>CP 0189 - Campo PMFD - Debito o Credito - Lógica</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -5165,7 +5165,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo sea Alfanumérico.</t>
+Paso n: Validar que el campo tenga la siguiente lógica: ("De", "Cr").</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -5182,7 +5182,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>CP 02 - Campo PMFD - Debito o Credito - Lógica</t>
+          <t>CP 0190 - Campo PMFD - Dirección Correspondencia - Largo del Campo</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -5190,7 +5190,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo tenga la siguiente lógica: ("De", "Cr").</t>
+Paso n: Validar que el campo tenga un largo de 35 caracteres.</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
@@ -5207,7 +5207,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>CP 01 - Campo PMFD - Dirección Correspondencia - Largo del Campo</t>
+          <t>CP 0191 - Campo PMFD - Dirección Correspondencia - Tipo de dato</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -5215,7 +5215,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo tenga un largo de 35 caracteres.</t>
+Paso n: Validar que el campo sea Alfanumérico.</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
@@ -5232,7 +5232,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>CP 02 - Campo PMFD - Dirección Correspondencia - Tipo de dato</t>
+          <t>CP 0192 - Campo PMFD - Correo Electrónico - Largo del Campo</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -5240,7 +5240,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo sea Alfanumérico.</t>
+Paso n: Validar que el campo tenga un largo de 35 caracteres.</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
@@ -5257,7 +5257,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>CP 01 - Campo PMFD - Correo Electrónico - Largo del Campo</t>
+          <t>CP 0193 - Campo PMFD - Correo Electrónico - Tipo de dato</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -5265,7 +5265,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo tenga un largo de 35 caracteres.</t>
+Paso n: Validar que el campo sea Alfanumérico.</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
@@ -5282,7 +5282,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>CP 02 - Campo PMFD - Correo Electrónico - Tipo de dato</t>
+          <t>CP 0194 - Campo PMFD - Teléfono Residencia - Largo del Campo</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -5290,7 +5290,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo sea Alfanumérico.</t>
+Paso n: Validar que el campo tenga un largo de 12 caracteres.</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
@@ -5307,7 +5307,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>CP 01 - Campo PMFD - Teléfono Residencia - Largo del Campo</t>
+          <t>CP 0195 - Campo PMFD - Teléfono Residencia - Tipo de dato</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -5315,7 +5315,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo tenga un largo de 12 caracteres.</t>
+Paso n: Validar que el campo sea Alfanumérico.</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
@@ -5332,7 +5332,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>CP 02 - Campo PMFD - Teléfono Residencia - Tipo de dato</t>
+          <t>CP 0196 - Campo PMFD - Teléfono Oficina - Largo del Campo</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -5340,7 +5340,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo sea Alfanumérico.</t>
+Paso n: Validar que el campo tenga un largo de 12 caracteres.</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
@@ -5357,7 +5357,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>CP 01 - Campo PMFD - Teléfono Oficina - Largo del Campo</t>
+          <t>CP 0197 - Campo PMFD - Teléfono Oficina - Tipo de dato</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -5365,7 +5365,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo tenga un largo de 12 caracteres.</t>
+Paso n: Validar que el campo sea Alfanumérico.</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -5382,7 +5382,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>CP 02 - Campo PMFD - Teléfono Oficina - Tipo de dato</t>
+          <t>CP 0198 - Campo PMFD - Teléfono Movil - Largo del Campo</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -5390,7 +5390,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo sea Alfanumérico.</t>
+Paso n: Validar que el campo tenga un largo de 12 caracteres.</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -5407,7 +5407,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>CP 01 - Campo PMFD - Teléfono Movil - Largo del Campo</t>
+          <t>CP 0199 - Campo PMFD - Teléfono Movil - Tipo de dato</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -5415,7 +5415,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo tenga un largo de 12 caracteres.</t>
+Paso n: Validar que el campo sea Alfanumérico.</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
@@ -5432,7 +5432,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>CP 02 - Campo PMFD - Teléfono Movil - Tipo de dato</t>
+          <t>CP 0200 - Campo PMFD - Estado de la Cuenta Origen - Largo del Campo</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -5440,7 +5440,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo sea Alfanumérico.</t>
+Paso n: Validar que el campo tenga un largo de 2 caracteres.</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
@@ -5457,7 +5457,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>CP 01 - Campo PMFD - Estado de la Cuenta Origen - Largo del Campo</t>
+          <t>CP 0201 - Campo PMFD - Estado de la Cuenta Origen - Tipo de dato</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -5465,7 +5465,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo tenga un largo de 2 caracteres.</t>
+Paso n: Validar que el campo sea Alfanumérico.</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
@@ -5482,7 +5482,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>CP 02 - Campo PMFD - Estado de la Cuenta Origen - Tipo de dato</t>
+          <t>CP 0202 - Campo PMFD - Estado de la Cuenta Origen - Lógica</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -5490,7 +5490,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo sea Alfanumérico.</t>
+Paso n: Validar que el campo tenga la siguiente lógica: ("K", "C", "M").</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
@@ -5507,7 +5507,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>CP 02 - Campo PMFD - Estado de la Cuenta Origen - Lógica</t>
+          <t>CP 0203 - Campo PMFD - Cod Red Comercio - Largo del Campo</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -5515,7 +5515,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo tenga la siguiente lógica: ("K", "C", "M").</t>
+Paso n: Validar que el campo tenga un largo de 6 caracteres.</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
@@ -5532,7 +5532,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>CP 01 - Campo PMFD - Cod Red Comercio - Largo del Campo</t>
+          <t>CP 0204 - Campo PMFD - Cod Red Comercio - Tipo de dato</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -5540,7 +5540,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo tenga un largo de 6 caracteres.</t>
+Paso n: Validar que el campo sea Alfanumérico.</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
@@ -5557,7 +5557,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>CP 02 - Campo PMFD - Cod Red Comercio - Tipo de dato</t>
+          <t>CP 0205 - Campo PMFD - Cod Red Comercio - Lógica</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -5565,7 +5565,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo sea Alfanumérico.</t>
+Paso n: Validar que el campo tenga la siguiente lógica: ("VIA", "BAA", "TBA", "TVT", "TMT").</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
@@ -5582,7 +5582,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>CP 02 - Campo PMFD - Cod Red Comercio - Lógica</t>
+          <t>CP 0206 - Campo PMFD - Motivo o Concepto - Largo del Campo</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -5590,7 +5590,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo tenga la siguiente lógica: ("VIA", "BAA", "TBA", "TVT", "TMT").</t>
+Paso n: Validar que el campo tenga un largo de 4 caracteres.</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
@@ -5607,7 +5607,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>CP 01 - Campo PMFD - Motivo o Concepto - Largo del Campo</t>
+          <t>CP 0207 - Campo PMFD - Motivo o Concepto - Tipo de dato</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -5615,7 +5615,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo tenga un largo de 4 caracteres.</t>
+Paso n: Validar que el campo sea Alfanumérico.</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
@@ -5632,7 +5632,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>CP 02 - Campo PMFD - Motivo o Concepto - Tipo de dato</t>
+          <t>CP 0208 - Campo PMFD - Monto Cheque - Largo del Campo</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -5640,7 +5640,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo sea Alfanumérico.</t>
+Paso n: Validar que el campo tenga un largo de 12 caracteres.</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
@@ -5657,7 +5657,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>CP 01 - Campo PMFD - Monto Cheque - Largo del Campo</t>
+          <t>CP 0209 - Campo PMFD - Monto Cheque - Tipo de dato</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -5665,7 +5665,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo tenga un largo de 12 caracteres.</t>
+Paso n: Validar que el campo sea Numérico.</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
@@ -5682,7 +5682,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>CP 02 - Campo PMFD - Monto Cheque - Tipo de dato</t>
+          <t>CP 0210 - Campo PMFD - Indicador de Fraude - Largo del Campo</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -5690,7 +5690,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo sea Numérico.</t>
+Paso n: Validar que el campo tenga un largo de 1 caracteres.</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
@@ -5707,7 +5707,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>CP 01 - Campo PMFD - Indicador de Fraude - Largo del Campo</t>
+          <t>CP 0211 - Campo PMFD - Indicador de Fraude - Tipo de dato</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -5715,7 +5715,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo tenga un largo de 1 caracteres.</t>
+Paso n: Validar que el campo sea Alfanumérico.</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
@@ -5732,7 +5732,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>CP 02 - Campo PMFD - Indicador de Fraude - Tipo de dato</t>
+          <t>CP 0212 - Campo PMFD - Indicador de Fraude - Lógica</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -5740,7 +5740,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo sea Alfanumérico.</t>
+Paso n: Validar que el campo tenga la siguiente lógica: ("G", "D", "F", "P").</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
@@ -5757,7 +5757,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>CP 02 - Campo PMFD - Indicador de Fraude - Lógica</t>
+          <t>CP 0213 - Campo PMFD - Origen Alerta - Largo del Campo</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -5765,7 +5765,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo tenga la siguiente lógica: ("G", "D", "F", "P").</t>
+Paso n: Validar que el campo tenga un largo de 3 caracteres.</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
@@ -5782,7 +5782,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>CP 01 - Campo PMFD - Origen Alerta - Largo del Campo</t>
+          <t>CP 0214 - Campo PMFD - Origen Alerta - Tipo de dato</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -5790,7 +5790,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo tenga un largo de 3 caracteres.</t>
+Paso n: Validar que el campo sea Numérico.</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
@@ -5807,7 +5807,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>CP 02 - Campo PMFD - Origen Alerta - Tipo de dato</t>
+          <t>CP 0215 - Campo PMFD - Origen Alerta - Lógica</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -5815,7 +5815,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo sea Numérico.</t>
+Paso n: Validar que el campo tenga la siguiente lógica: ("620", "700", "710", "720", "750").</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
@@ -5832,7 +5832,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>CP 02 - Campo PMFD - Origen Alerta - Lógica</t>
+          <t>CP 0216 - Campo VAA-Score de Riesgo Otra fuente - Largo del Campo</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -5840,7 +5840,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo tenga la siguiente lógica: ("620", "700", "710", "720", "750").</t>
+Paso n: Validar que el campo tenga un largo de 4 caracteres.</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
@@ -5857,7 +5857,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>CP 01 - Campo VAA-Score de Riesgo Otra fuente - Largo del Campo</t>
+          <t>CP 0217 - Campo VAA-Score de Riesgo Otra fuente - Tipo de dato</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -5865,7 +5865,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo tenga un largo de 4 caracteres.</t>
+Paso n: Validar que el campo sea Numérico.</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
@@ -5882,7 +5882,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>CP 02 - Campo VAA-Score de Riesgo Otra fuente - Tipo de dato</t>
+          <t>CP 0218 - Campo VAA-Código de Razón de Riesgo Otra fuente - Largo del Campo</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -5890,7 +5890,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo sea Numérico.</t>
+Paso n: Validar que el campo tenga un largo de 2 caracteres.</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
@@ -5907,7 +5907,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>CP 01 - Campo VAA-Código de Razón de Riesgo Otra fuente - Largo del Campo</t>
+          <t>CP 0219 - Campo VAA-Código de Razón de Riesgo Otra fuente - Tipo de dato</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -5915,7 +5915,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo tenga un largo de 2 caracteres.</t>
+Paso n: Validar que el campo sea Alfanumérico.</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
@@ -5932,7 +5932,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>CP 02 - Campo VAA-Código de Razón de Riesgo Otra fuente - Tipo de dato</t>
+          <t>CP 0220 - Campo VAA-Código de Compromiso Otras Fuentes - Largo del Campo</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -5940,7 +5940,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo sea Alfanumérico.</t>
+Paso n: Validar que el campo tenga un largo de 2 caracteres.</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
@@ -5957,7 +5957,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>CP 01 - Campo VAA-Código de Compromiso Otras Fuentes - Largo del Campo</t>
+          <t>CP 0221 - Campo VAA-Código de Compromiso Otras Fuentes - Tipo de dato</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -5965,7 +5965,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo tenga un largo de 2 caracteres.</t>
+Paso n: Validar que el campo sea Alfanumérico.</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
@@ -5982,7 +5982,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>CP 02 - Campo VAA-Código de Compromiso Otras Fuentes - Tipo de dato</t>
+          <t>CP 0222 - Campo VAA-Evento de Compromiso Otra fuente - Largo del Campo</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -5990,7 +5990,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo sea Alfanumérico.</t>
+Paso n: Validar que el campo tenga un largo de 2 caracteres.</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
@@ -6007,7 +6007,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>CP 01 - Campo VAA-Evento de Compromiso Otra fuente - Largo del Campo</t>
+          <t>CP 0223 - Campo VAA-Evento de Compromiso Otra fuente - Tipo de dato</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -6015,7 +6015,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo tenga un largo de 2 caracteres.</t>
+Paso n: Validar que el campo sea Alfanumérico.</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
@@ -6032,7 +6032,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>CP 02 - Campo VAA-Evento de Compromiso Otra fuente - Tipo de dato</t>
+          <t>CP 0224 - Campo PMFD - Indicador PMFD Real Time - Largo del Campo</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -6040,7 +6040,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo sea Alfanumérico.</t>
+Paso n: Validar que el campo tenga un largo de 1 caracteres.</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
@@ -6057,7 +6057,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>CP 01 - Campo PMFD - Indicador PMFD Real Time - Largo del Campo</t>
+          <t>CP 0225 - Campo PMFD - Indicador PMFD Real Time - Tipo de dato</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -6065,7 +6065,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo tenga un largo de 1 caracteres.</t>
+Paso n: Validar que el campo sea Alfanumérico.</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
@@ -6082,7 +6082,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>CP 02 - Campo PMFD - Indicador PMFD Real Time - Tipo de dato</t>
+          <t>CP 0226 - Campo PMFD - Respuesta PMFD Real Time - Score - Largo del Campo</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -6090,7 +6090,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo sea Alfanumérico.</t>
+Paso n: Validar que el campo tenga un largo de 4 caracteres.</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
@@ -6107,7 +6107,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>CP 01 - Campo PMFD - Respuesta PMFD Real Time - Score - Largo del Campo</t>
+          <t>CP 0227 - Campo PMFD - Respuesta PMFD Real Time - Score - Tipo de dato</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -6115,7 +6115,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo tenga un largo de 4 caracteres.</t>
+Paso n: Validar que el campo sea Numérico.</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
@@ -6132,7 +6132,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>CP 02 - Campo PMFD - Respuesta PMFD Real Time - Score - Tipo de dato</t>
+          <t>CP 0228 - Campo PMFD - Reversado PMFD Real Time - Largo del Campo</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -6140,7 +6140,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo sea Numérico.</t>
+Paso n: Validar que el campo tenga un largo de 1 caracteres.</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
@@ -6157,7 +6157,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>CP 01 - Campo PMFD - Reversado PMFD Real Time - Largo del Campo</t>
+          <t>CP 0229 - Campo PMFD - Reversado PMFD Real Time - Tipo de dato</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -6165,7 +6165,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo tenga un largo de 1 caracteres.</t>
+Paso n: Validar que el campo sea Alfanumérico.</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
@@ -6182,7 +6182,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>CP 02 - Campo PMFD - Reversado PMFD Real Time - Tipo de dato</t>
+          <t>CP 0230 - Campo PMFD-Numevento a Reversar PMFD Real Time - Largo del Campo</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -6190,7 +6190,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo sea Alfanumérico.</t>
+Paso n: Validar que el campo tenga un largo de 9 caracteres.</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
@@ -6207,7 +6207,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>CP 01 - Campo PMFD-Numevento a Reversar PMFD Real Time - Largo del Campo</t>
+          <t>CP 0231 - Campo PMFD-Numevento a Reversar PMFD Real Time - Tipo de dato</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -6215,7 +6215,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo tenga un largo de 9 caracteres.</t>
+Paso n: Validar que el campo sea Alfanumérico.</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>CP 02 - Campo PMFD-Numevento a Reversar PMFD Real Time - Tipo de dato</t>
+          <t>CP 0232 - Campo PMFD - Campo Libre 3 alfa de 25 - Largo del Campo</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -6240,7 +6240,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo sea Alfanumérico.</t>
+Paso n: Validar que el campo tenga un largo de 25 caracteres.</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
@@ -6257,7 +6257,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>CP 01 - Campo PMFD - Campo Libre 3 alfa de 25 - Largo del Campo</t>
+          <t>CP 0233 - Campo PMFD - Campo Libre 3 alfa de 25 - Tipo de dato</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -6265,7 +6265,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo tenga un largo de 25 caracteres.</t>
+Paso n: Validar que el campo sea Alfanumérico.</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
@@ -6282,7 +6282,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>CP 02 - Campo PMFD - Campo Libre 3 alfa de 25 - Tipo de dato</t>
+          <t>CP 0234 - Campo PMFD/AFD-Indicador Correccion  Negadas Real Time - Largo del Campo</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -6290,7 +6290,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo sea Alfanumérico.</t>
+Paso n: Validar que el campo tenga un largo de 1 caracteres.</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
@@ -6307,7 +6307,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>CP 01 - Campo PMFD/AFD-Indicador Correccion  Negadas Real Time - Largo del Campo</t>
+          <t>CP 0235 - Campo PMFD/AFD-Indicador Correccion  Negadas Real Time - Tipo de dato</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -6315,7 +6315,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo tenga un largo de 1 caracteres.</t>
+Paso n: Validar que el campo sea Alfanumérico.</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
@@ -6332,7 +6332,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>CP 02 - Campo PMFD/AFD-Indicador Correccion  Negadas Real Time - Tipo de dato</t>
+          <t>CP 0236 - Campo PMFD/AFD-Indicador Time Out Real Time - Largo del Campo</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -6340,7 +6340,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo sea Alfanumérico.</t>
+Paso n: Validar que el campo tenga un largo de 1 caracteres.</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
@@ -6357,7 +6357,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>CP 01 - Campo PMFD/AFD-Indicador Time Out Real Time - Largo del Campo</t>
+          <t>CP 0237 - Campo PMFD/AFD-Indicador Time Out Real Time - Tipo de dato</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -6365,7 +6365,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo tenga un largo de 1 caracteres.</t>
+Paso n: Validar que el campo sea Alfanumérico.</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
@@ -6382,7 +6382,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>CP 02 - Campo PMFD/AFD-Indicador Time Out Real Time - Tipo de dato</t>
+          <t>CP 0238 - Campo PMFD - Score Otras Fuentes 1 - Largo del Campo</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -6390,7 +6390,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo sea Alfanumérico.</t>
+Paso n: Validar que el campo tenga un largo de 4 caracteres.</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
@@ -6407,7 +6407,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>CP 01 - Campo PMFD - Score Otras Fuentes 1 - Largo del Campo</t>
+          <t>CP 0239 - Campo PMFD - Score Otras Fuentes 1 - Tipo de dato</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -6415,7 +6415,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo tenga un largo de 4 caracteres.</t>
+Paso n: Validar que el campo sea Numérico.</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
@@ -6432,7 +6432,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>CP 02 - Campo PMFD - Score Otras Fuentes 1 - Tipo de dato</t>
+          <t>CP 0240 - Campo PMFD - Score Otras Fuentes 2 - Largo del Campo</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -6440,7 +6440,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo sea Numérico.</t>
+Paso n: Validar que el campo tenga un largo de 4 caracteres.</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
@@ -6457,7 +6457,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>CP 01 - Campo PMFD - Score Otras Fuentes 2 - Largo del Campo</t>
+          <t>CP 0241 - Campo PMFD - Score Otras Fuentes 2 - Tipo de dato</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -6465,7 +6465,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo tenga un largo de 4 caracteres.</t>
+Paso n: Validar que el campo sea Numérico.</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
@@ -6482,7 +6482,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>CP 02 - Campo PMFD - Score Otras Fuentes 2 - Tipo de dato</t>
+          <t>CP 0242 - Campo PMFD - Score Otras Fuentes 3 - Largo del Campo</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -6490,7 +6490,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo sea Numérico.</t>
+Paso n: Validar que el campo tenga un largo de 4 caracteres.</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
@@ -6507,7 +6507,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>CP 01 - Campo PMFD - Score Otras Fuentes 3 - Largo del Campo</t>
+          <t>CP 0243 - Campo PMFD - Score Otras Fuentes 3 - Tipo de dato</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -6515,7 +6515,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo tenga un largo de 4 caracteres.</t>
+Paso n: Validar que el campo sea Numérico.</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
@@ -6532,7 +6532,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>CP 02 - Campo PMFD - Score Otras Fuentes 3 - Tipo de dato</t>
+          <t>CP 0244 - Campo PMFD - Indicador EMV - Largo del Campo</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -6540,7 +6540,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo sea Numérico.</t>
+Paso n: Validar que el campo tenga un largo de 1 caracteres.</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
@@ -6557,7 +6557,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>CP 01 - Campo PMFD - Indicador EMV - Largo del Campo</t>
+          <t>CP 0245 - Campo PMFD - Indicador EMV - Tipo de dato</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -6565,7 +6565,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo tenga un largo de 1 caracteres.</t>
+Paso n: Validar que el campo sea Alfanumérico.</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
@@ -6582,7 +6582,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>CP 02 - Campo PMFD - Indicador EMV - Tipo de dato</t>
+          <t>CP 0246 - Campo PMFD - Indicador EMV - Lógica</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -6590,7 +6590,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo sea Alfanumérico.</t>
+Paso n: Validar que el campo tenga la siguiente lógica: ("S", "N").</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
@@ -6607,7 +6607,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>CP 02 - Campo PMFD - Indicador EMV - Lógica</t>
+          <t>CP 0247 - Campo PMFD - Tarjeta tiene Chip - Largo del Campo</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -6615,7 +6615,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo tenga la siguiente lógica: ("S", "N").</t>
+Paso n: Validar que el campo tenga un largo de 1 caracteres.</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
@@ -6632,7 +6632,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>CP 01 - Campo PMFD - Tarjeta tiene Chip - Largo del Campo</t>
+          <t>CP 0248 - Campo PMFD - Tarjeta tiene Chip - Tipo de dato</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -6640,7 +6640,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo tenga un largo de 1 caracteres.</t>
+Paso n: Validar que el campo sea Alfanumérico.</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
@@ -6657,7 +6657,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>CP 02 - Campo PMFD - Tarjeta tiene Chip - Tipo de dato</t>
+          <t>CP 0249 - Campo PMFD - Tarjeta tiene Chip - Lógica</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -6665,7 +6665,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo sea Alfanumérico.</t>
+Paso n: Validar que el campo tenga la siguiente lógica: ("S", "N").</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
@@ -6682,7 +6682,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>CP 02 - Campo PMFD - Tarjeta tiene Chip - Lógica</t>
+          <t>CP 0250 - Campo PMFD - Evaluacion Dispositivo Chip - Largo del Campo</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -6690,7 +6690,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo tenga la siguiente lógica: ("S", "N").</t>
+Paso n: Validar que el campo tenga un largo de 1 caracteres.</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
@@ -6707,7 +6707,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>CP 01 - Campo PMFD - Evaluacion Dispositivo Chip - Largo del Campo</t>
+          <t>CP 0251 - Campo PMFD - Evaluacion Dispositivo Chip - Tipo de dato</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -6715,7 +6715,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo tenga un largo de 1 caracteres.</t>
+Paso n: Validar que el campo sea Alfanumérico.</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
@@ -6732,7 +6732,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>CP 02 - Campo PMFD - Evaluacion Dispositivo Chip - Tipo de dato</t>
+          <t>CP 0252 - Campo PMFD - Evaluacion Dispositivo Chip - Lógica</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -6740,7 +6740,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo sea Alfanumérico.</t>
+Paso n: Validar que el campo tenga la siguiente lógica: ("S", "N").</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
@@ -6757,7 +6757,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>CP 02 - Campo PMFD - Evaluacion Dispositivo Chip - Lógica</t>
+          <t>CP 0253 - Campo PMFD - TVR - Largo del Campo</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -6765,7 +6765,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo tenga la siguiente lógica: ("S", "N").</t>
+Paso n: Validar que el campo tenga un largo de 40 caracteres.</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
@@ -6782,7 +6782,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>CP 01 - Campo PMFD - TVR - Largo del Campo</t>
+          <t>CP 0254 - Campo PMFD - TVR - Tipo de dato</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -6790,7 +6790,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo tenga un largo de 40 caracteres.</t>
+Paso n: Validar que el campo sea Alfanumérico.</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
@@ -6807,7 +6807,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>CP 02 - Campo PMFD - TVR - Tipo de dato</t>
+          <t>CP 0255 - Campo PMFD - CVR - Largo del Campo</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -6815,7 +6815,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo sea Alfanumérico.</t>
+Paso n: Validar que el campo tenga un largo de 40 caracteres.</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
@@ -6832,7 +6832,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>CP 01 - Campo PMFD - CVR - Largo del Campo</t>
+          <t>CP 0256 - Campo PMFD - CVR - Tipo de dato</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -6840,7 +6840,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo tenga un largo de 40 caracteres.</t>
+Paso n: Validar que el campo sea Alfanumérico.</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
@@ -6857,7 +6857,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>CP 02 - Campo PMFD - CVR - Tipo de dato</t>
+          <t>CP 0257 - Campo PMFD - No. Tarjeta Encriptado SHA 256 - Largo del Campo</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -6865,7 +6865,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo sea Alfanumérico.</t>
+Paso n: Validar que el campo tenga un largo de 128 caracteres.</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
@@ -6882,7 +6882,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>CP 01 - Campo PMFD - No. Tarjeta Encriptado SHA 256 - Largo del Campo</t>
+          <t>CP 0258 - Campo PMFD - No. Tarjeta Encriptado SHA 256 - Tipo de dato</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -6890,7 +6890,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo tenga un largo de 128 caracteres.</t>
+Paso n: Validar que el campo sea Alfanumérico.</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
@@ -6907,7 +6907,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>CP 02 - Campo PMFD - No. Tarjeta Encriptado SHA 256 - Tipo de dato</t>
+          <t>CP 0259 - Campo Tarjeta_Migrada_Cre - Largo del Campo</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -6915,7 +6915,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo sea Alfanumérico.</t>
+Paso n: Validar que el campo tenga un largo de 128 caracteres.</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
@@ -6932,7 +6932,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>CP 01 - Campo Tarjeta_Migrada_Cre - Largo del Campo</t>
+          <t>CP 0260 - Campo Tarjeta_Migrada_Cre - Tipo de dato</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -6940,7 +6940,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo tenga un largo de 128 caracteres.</t>
+Paso n: Validar que el campo sea Alfanumérico.</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
@@ -6957,7 +6957,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>CP 02 - Campo Tarjeta_Migrada_Cre - Tipo de dato</t>
+          <t>CP 0261 - Campo PMFD - MYC - Usuario - Largo del Campo</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -6965,7 +6965,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo sea Alfanumérico.</t>
+Paso n: Validar que el campo tenga un largo de 20 caracteres.</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
@@ -6982,7 +6982,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>CP 01 - Campo PMFD - MYC - Usuario - Largo del Campo</t>
+          <t>CP 0262 - Campo PMFD - MYC - Usuario - Tipo de dato</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -6990,7 +6990,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo tenga un largo de 20 caracteres.</t>
+Paso n: Validar que el campo sea Alfanumérico.</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
@@ -7007,7 +7007,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>CP 02 - Campo PMFD - MYC - Usuario - Tipo de dato</t>
+          <t>CP 0263 - Campo PMFD - ECI Electronic Commerce Indicator - Largo del Campo</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -7015,7 +7015,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo sea Alfanumérico.</t>
+Paso n: Validar que el campo tenga un largo de 3 caracteres.</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
@@ -7032,7 +7032,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>CP 01 - Campo PMFD - ECI Electronic Commerce Indicator - Largo del Campo</t>
+          <t>CP 0264 - Campo PMFD - ECI Electronic Commerce Indicator - Tipo de dato</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -7040,7 +7040,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo tenga un largo de 3 caracteres.</t>
+Paso n: Validar que el campo sea Alfanumérico.</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
@@ -7057,7 +7057,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>CP 02 - Campo PMFD - ECI Electronic Commerce Indicator - Tipo de dato</t>
+          <t>CP 0265 - Campo PMFD - CAVV/AVV 3-D - Largo del Campo</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -7065,7 +7065,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo sea Alfanumérico.</t>
+Paso n: Validar que el campo tenga un largo de 32 caracteres.</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
@@ -7082,7 +7082,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>CP 01 - Campo PMFD - CAVV/AVV 3-D - Largo del Campo</t>
+          <t>CP 0266 - Campo PMFD - CAVV/AVV 3-D - Tipo de dato</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -7090,7 +7090,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo tenga un largo de 32 caracteres.</t>
+Paso n: Validar que el campo sea Alfanumérico.</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
@@ -7107,7 +7107,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>CP 02 - Campo PMFD - CAVV/AVV 3-D - Tipo de dato</t>
+          <t>CP 0267 - Campo PMFD - CAVV Result Code/3-D Secure Electronic Response Code - Largo del Campo</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -7115,7 +7115,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo sea Alfanumérico.</t>
+Paso n: Validar que el campo tenga un largo de 3 caracteres.</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
@@ -7132,7 +7132,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>CP 01 - Campo PMFD - CAVV Result Code/3-D Secure Electronic Response Code - Largo del Campo</t>
+          <t>CP 0268 - Campo PMFD - CAVV Result Code/3-D Secure Electronic Response Code - Tipo de dato</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -7140,7 +7140,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo tenga un largo de 3 caracteres.</t>
+Paso n: Validar que el campo sea Alfanumérico.</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
@@ -7157,7 +7157,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>CP 02 - Campo PMFD - CAVV Result Code/3-D Secure Electronic Response Code - Tipo de dato</t>
+          <t>CP 0269 - Campo PMFD - Authentication Program - Largo del Campo</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -7165,7 +7165,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo sea Alfanumérico.</t>
+Paso n: Validar que el campo tenga un largo de 1 caracteres.</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
@@ -7182,7 +7182,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>CP 01 - Campo PMFD - Authentication Program - Largo del Campo</t>
+          <t>CP 0270 - Campo PMFD - Authentication Program - Tipo de dato</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -7190,7 +7190,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo tenga un largo de 1 caracteres.</t>
+Paso n: Validar que el campo sea Alfanumérico.</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
@@ -7207,7 +7207,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>CP 02 - Campo PMFD - Authentication Program - Tipo de dato</t>
+          <t>CP 0271 - Campo PMFD - Additional Data - Largo del Campo</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -7215,7 +7215,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo sea Alfanumérico.</t>
+Paso n: Validar que el campo tenga un largo de 40 caracteres.</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
@@ -7232,7 +7232,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>CP 01 - Campo PMFD - Additional Data - Largo del Campo</t>
+          <t>CP 0272 - Campo PMFD - Additional Data - Tipo de dato</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -7240,7 +7240,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo tenga un largo de 40 caracteres.</t>
+Paso n: Validar que el campo sea Alfanumérico.</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
@@ -7257,7 +7257,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>CP 02 - Campo PMFD - Additional Data - Tipo de dato</t>
+          <t>CP 0273 - Campo PMFD - Marca del ATM - Largo del Campo</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -7265,7 +7265,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo sea Alfanumérico.</t>
+Paso n: Validar que el campo tenga un largo de 2 caracteres.</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
@@ -7282,7 +7282,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>CP 01 - Campo PMFD - Marca del ATM - Largo del Campo</t>
+          <t>CP 0274 - Campo PMFD - Marca del ATM - Tipo de dato</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
@@ -7290,7 +7290,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo tenga un largo de 2 caracteres.</t>
+Paso n: Validar que el campo sea Numérico.</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
@@ -7307,7 +7307,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>CP 02 - Campo PMFD - Marca del ATM - Tipo de dato</t>
+          <t>CP 0275 - Campo PMFD - Modelo del ATM - Largo del Campo</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
@@ -7315,7 +7315,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo sea Numérico.</t>
+Paso n: Validar que el campo tenga un largo de 15 caracteres.</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
@@ -7332,7 +7332,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>CP 01 - Campo PMFD - Modelo del ATM - Largo del Campo</t>
+          <t>CP 0276 - Campo PMFD - Modelo del ATM - Tipo de dato</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -7340,7 +7340,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo tenga un largo de 15 caracteres.</t>
+Paso n: Validar que el campo sea Alfanumérico.</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
@@ -7357,7 +7357,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>CP 02 - Campo PMFD - Modelo del ATM - Tipo de dato</t>
+          <t>CP 0277 - Campo PMFD - Ubicacion del ATM - Largo del Campo</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -7365,7 +7365,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo sea Alfanumérico.</t>
+Paso n: Validar que el campo tenga un largo de 4 caracteres.</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
@@ -7382,7 +7382,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>CP 01 - Campo PMFD - Ubicacion del ATM - Largo del Campo</t>
+          <t>CP 0278 - Campo PMFD - Ubicacion del ATM - Tipo de dato</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -7390,7 +7390,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo tenga un largo de 4 caracteres.</t>
+Paso n: Validar que el campo sea Numérico.</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
@@ -7407,7 +7407,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>CP 02 - Campo PMFD - Ubicacion del ATM - Tipo de dato</t>
+          <t>CP 0279 - Campo PMFD - Dispositivos Facil de Identificar - Largo del Campo</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -7415,7 +7415,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo sea Numérico.</t>
+Paso n: Validar que el campo tenga un largo de 1 caracteres.</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
@@ -7432,7 +7432,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>CP 01 - Campo PMFD - Dispositivos Facil de Identificar - Largo del Campo</t>
+          <t>CP 0280 - Campo PMFD - Dispositivos Facil de Identificar - Tipo de dato</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -7440,7 +7440,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo tenga un largo de 1 caracteres.</t>
+Paso n: Validar que el campo sea Alfanumérico.</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
@@ -7457,7 +7457,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>CP 02 - Campo PMFD - Dispositivos Facil de Identificar - Tipo de dato</t>
+          <t>CP 0281 - Campo PMFD - Dispositivos Facil de Identificar - Lógica</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
@@ -7465,7 +7465,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo sea Alfanumérico.</t>
+Paso n: Validar que el campo tenga la siguiente lógica: ("S", "N").</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
@@ -7482,7 +7482,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>CP 02 - Campo PMFD - Dispositivos Facil de Identificar - Lógica</t>
+          <t>CP 0282 - Campo PMFD - Tiene Camara de Video - Largo del Campo</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -7490,7 +7490,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo tenga la siguiente lógica: ("S", "N").</t>
+Paso n: Validar que el campo tenga un largo de 1 caracteres.</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
@@ -7507,7 +7507,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>CP 01 - Campo PMFD - Tiene Camara de Video - Largo del Campo</t>
+          <t>CP 0283 - Campo PMFD - Tiene Camara de Video - Tipo de dato</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
@@ -7515,7 +7515,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo tenga un largo de 1 caracteres.</t>
+Paso n: Validar que el campo sea Alfanumérico.</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
@@ -7532,7 +7532,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>CP 02 - Campo PMFD - Tiene Camara de Video - Tipo de dato</t>
+          <t>CP 0284 - Campo PMFD - Tiene Camara de Video - Lógica</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
@@ -7540,7 +7540,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo sea Alfanumérico.</t>
+Paso n: Validar que el campo tenga la siguiente lógica: ("S", "N").</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
@@ -7557,7 +7557,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>CP 02 - Campo PMFD - Tiene Camara de Video - Lógica</t>
+          <t>CP 0285 - Campo PMFD - Tipo Lectora Banda Magnetica - Largo del Campo</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
@@ -7565,7 +7565,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo tenga la siguiente lógica: ("S", "N").</t>
+Paso n: Validar que el campo tenga un largo de 1 caracteres.</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
@@ -7582,7 +7582,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>CP 01 - Campo PMFD - Tipo Lectora Banda Magnetica - Largo del Campo</t>
+          <t>CP 0286 - Campo PMFD - Tipo Lectora Banda Magnetica - Tipo de dato</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -7590,7 +7590,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo tenga un largo de 1 caracteres.</t>
+Paso n: Validar que el campo sea Alfanumérico.</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
@@ -7607,7 +7607,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>CP 02 - Campo PMFD - Tipo Lectora Banda Magnetica - Tipo de dato</t>
+          <t>CP 0287 - Campo PMFD - Tipo Lectora Banda Magnetica - Lógica</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -7615,7 +7615,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo sea Alfanumérico.</t>
+Paso n: Validar que el campo tenga la siguiente lógica: ("S", "N").</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
@@ -7632,7 +7632,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>CP 02 - Campo PMFD - Tipo Lectora Banda Magnetica - Lógica</t>
+          <t>CP 0288 - Campo PMFD - ATM sencillo o Multiple - Largo del Campo</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -7640,7 +7640,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo tenga la siguiente lógica: ("S", "N").</t>
+Paso n: Validar que el campo tenga un largo de 1 caracteres.</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
@@ -7657,7 +7657,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>CP 01 - Campo PMFD - ATM sencillo o Multiple - Largo del Campo</t>
+          <t>CP 0289 - Campo PMFD - ATM sencillo o Multiple - Tipo de dato</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -7665,7 +7665,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo tenga un largo de 1 caracteres.</t>
+Paso n: Validar que el campo sea Alfanumérico.</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
@@ -7682,7 +7682,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>CP 02 - Campo PMFD - ATM sencillo o Multiple - Tipo de dato</t>
+          <t>CP 0290 - Campo PMFD - ATM sencillo o Multiple - Lógica</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -7690,7 +7690,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo sea Alfanumérico.</t>
+Paso n: Validar que el campo tenga la siguiente lógica: ("S", "M").</t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
@@ -7707,7 +7707,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>CP 02 - Campo PMFD - ATM sencillo o Multiple - Lógica</t>
+          <t>CP 0291 - Campo PMFD - Grupo ATM Cajeros Multiples - Largo del Campo</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -7715,7 +7715,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo tenga la siguiente lógica: ("S", "M").</t>
+Paso n: Validar que el campo tenga un largo de 4 caracteres.</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
@@ -7732,7 +7732,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>CP 01 - Campo PMFD - Grupo ATM Cajeros Multiples - Largo del Campo</t>
+          <t>CP 0292 - Campo PMFD - Grupo ATM Cajeros Multiples - Tipo de dato</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -7740,7 +7740,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo tenga un largo de 4 caracteres.</t>
+Paso n: Validar que el campo sea Numérico.</t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
@@ -7757,7 +7757,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>CP 02 - Campo PMFD - Grupo ATM Cajeros Multiples - Tipo de dato</t>
+          <t>CP 0293 - Campo ID-BILLETERA - Largo del Campo</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -7765,7 +7765,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo sea Numérico.</t>
+Paso n: Validar que el campo tenga un largo de 11 caracteres.</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
@@ -7782,7 +7782,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>CP 01 - Campo ID-BILLETERA - Largo del Campo</t>
+          <t>CP 0294 - Campo ID-BILLETERA - Tipo de dato</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -7790,7 +7790,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo tenga un largo de 11 caracteres.</t>
+Paso n: Validar que el campo sea Numérico.</t>
         </is>
       </c>
       <c r="D295" t="inlineStr">
@@ -7807,7 +7807,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>CP 02 - Campo ID-BILLETERA - Tipo de dato</t>
+          <t>CP 0295 - Campo Presencia de PIN - Largo del Campo</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -7815,7 +7815,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo sea Numérico.</t>
+Paso n: Validar que el campo tenga un largo de 1 caracteres.</t>
         </is>
       </c>
       <c r="D296" t="inlineStr">
@@ -7832,7 +7832,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>CP 01 - Campo Presencia de PIN - Largo del Campo</t>
+          <t>CP 0296 - Campo Presencia de PIN - Tipo de dato</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -7840,7 +7840,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo tenga un largo de 1 caracteres.</t>
+Paso n: Validar que el campo sea Alfanumérico.</t>
         </is>
       </c>
       <c r="D297" t="inlineStr">
@@ -7857,7 +7857,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>CP 02 - Campo Presencia de PIN - Tipo de dato</t>
+          <t>CP 0297 - Campo Presencia de CVV/CVC - Largo del Campo</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -7865,7 +7865,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo sea Alfanumérico.</t>
+Paso n: Validar que el campo tenga un largo de 1 caracteres.</t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
@@ -7882,7 +7882,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>CP 01 - Campo Presencia de CVV/CVC - Largo del Campo</t>
+          <t>CP 0298 - Campo Presencia de CVV/CVC - Tipo de dato</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -7890,7 +7890,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo tenga un largo de 1 caracteres.</t>
+Paso n: Validar que el campo sea Alfanumérico.</t>
         </is>
       </c>
       <c r="D299" t="inlineStr">
@@ -7907,7 +7907,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>CP 02 - Campo Presencia de CVV/CVC - Tipo de dato</t>
+          <t>CP 0299 - Campo Presencia de CVV/CVC - Lógica</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -7915,7 +7915,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo sea Alfanumérico.</t>
+Paso n: Validar que el campo tenga la siguiente lógica: ("S", "N").</t>
         </is>
       </c>
       <c r="D300" t="inlineStr">
@@ -7932,7 +7932,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>CP 02 - Campo Presencia de CVV/CVC - Lógica</t>
+          <t>CP 0300 - Campo Presencia de CVV2/CVC2 - Largo del Campo</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -7940,7 +7940,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo tenga la siguiente lógica: ("S", "N").</t>
+Paso n: Validar que el campo tenga un largo de 1 caracteres.</t>
         </is>
       </c>
       <c r="D301" t="inlineStr">
@@ -7957,7 +7957,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>CP 01 - Campo Presencia de CVV2/CVC2 - Largo del Campo</t>
+          <t>CP 0301 - Campo Presencia de CVV2/CVC2 - Tipo de dato</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -7965,7 +7965,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo tenga un largo de 1 caracteres.</t>
+Paso n: Validar que el campo sea Alfanumérico.</t>
         </is>
       </c>
       <c r="D302" t="inlineStr">
@@ -7982,7 +7982,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>CP 02 - Campo Presencia de CVV2/CVC2 - Tipo de dato</t>
+          <t>CP 0302 - Campo Presencia de CVV2/CVC2 - Lógica</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -7990,7 +7990,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo sea Alfanumérico.</t>
+Paso n: Validar que el campo tenga la siguiente lógica: ("S", "N").</t>
         </is>
       </c>
       <c r="D303" t="inlineStr">
@@ -8007,7 +8007,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>CP 02 - Campo Presencia de CVV2/CVC2 - Lógica</t>
+          <t>CP 0303 - Campo Presencia de EMV - Largo del Campo</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -8015,7 +8015,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo tenga la siguiente lógica: ("S", "N").</t>
+Paso n: Validar que el campo tenga un largo de 1 caracteres.</t>
         </is>
       </c>
       <c r="D304" t="inlineStr">
@@ -8032,7 +8032,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>CP 01 - Campo Presencia de EMV - Largo del Campo</t>
+          <t>CP 0304 - Campo Presencia de EMV - Tipo de dato</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -8040,7 +8040,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo tenga un largo de 1 caracteres.</t>
+Paso n: Validar que el campo sea Alfanumérico.</t>
         </is>
       </c>
       <c r="D305" t="inlineStr">
@@ -8057,7 +8057,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>CP 02 - Campo Presencia de EMV - Tipo de dato</t>
+          <t>CP 0305 - Campo Presencia de EMV - Lógica</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -8065,7 +8065,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo sea Alfanumérico.</t>
+Paso n: Validar que el campo tenga la siguiente lógica: ("S", "N").</t>
         </is>
       </c>
       <c r="D306" t="inlineStr">
@@ -8082,7 +8082,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>CP 02 - Campo Presencia de EMV - Lógica</t>
+          <t>CP 0306 - Campo Terminal Type - Largo del Campo</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -8090,7 +8090,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo tenga la siguiente lógica: ("S", "N").</t>
+Paso n: Validar que el campo tenga un largo de 1 caracteres.</t>
         </is>
       </c>
       <c r="D307" t="inlineStr">
@@ -8107,7 +8107,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>CP 01 - Campo Terminal Type - Largo del Campo</t>
+          <t>CP 0307 - Campo Terminal Type - Tipo de dato</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -8115,7 +8115,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo tenga un largo de 1 caracteres.</t>
+Paso n: Validar que el campo sea Alfanumérico.</t>
         </is>
       </c>
       <c r="D308" t="inlineStr">
@@ -8132,7 +8132,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>CP 02 - Campo Terminal Type - Tipo de dato</t>
+          <t>CP 0308 - Campo Terminal Entry Capability - Largo del Campo</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -8140,7 +8140,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo sea Alfanumérico.</t>
+Paso n: Validar que el campo tenga un largo de 1 caracteres.</t>
         </is>
       </c>
       <c r="D309" t="inlineStr">
@@ -8157,7 +8157,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>CP 01 - Campo Terminal Entry Capability - Largo del Campo</t>
+          <t>CP 0309 - Campo Terminal Entry Capability - Tipo de dato</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -8165,7 +8165,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo tenga un largo de 1 caracteres.</t>
+Paso n: Validar que el campo sea Alfanumérico.</t>
         </is>
       </c>
       <c r="D310" t="inlineStr">
@@ -8182,7 +8182,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>CP 02 - Campo Terminal Entry Capability - Tipo de dato</t>
+          <t>CP 0310 - Campo Partial Authorization Responses - Largo del Campo</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -8190,7 +8190,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo sea Alfanumérico.</t>
+Paso n: Validar que el campo tenga un largo de 1 caracteres.</t>
         </is>
       </c>
       <c r="D311" t="inlineStr">
@@ -8207,7 +8207,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>CP 01 - Campo Partial Authorization Responses - Largo del Campo</t>
+          <t>CP 0311 - Campo Partial Authorization Responses - Tipo de dato</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -8215,7 +8215,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo tenga un largo de 1 caracteres.</t>
+Paso n: Validar que el campo sea Alfanumérico.</t>
         </is>
       </c>
       <c r="D312" t="inlineStr">
@@ -8232,7 +8232,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>CP 02 - Campo Partial Authorization Responses - Tipo de dato</t>
+          <t>CP 0312 - Campo STIP/Switch_Reason_Code - Largo del Campo</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -8240,7 +8240,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo sea Alfanumérico.</t>
+Paso n: Validar que el campo tenga un largo de 4 caracteres.</t>
         </is>
       </c>
       <c r="D313" t="inlineStr">
@@ -8257,7 +8257,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>CP 01 - Campo STIP/Switch_Reason_Code - Largo del Campo</t>
+          <t>CP 0313 - Campo STIP/Switch_Reason_Code - Tipo de dato</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -8265,7 +8265,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo tenga un largo de 4 caracteres.</t>
+Paso n: Validar que el campo sea Alfanumérico.</t>
         </is>
       </c>
       <c r="D314" t="inlineStr">
@@ -8282,7 +8282,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>CP 02 - Campo STIP/Switch_Reason_Code - Tipo de dato</t>
+          <t>CP 0314 - Campo CVV2Result - Largo del Campo</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -8290,7 +8290,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo sea Alfanumérico.</t>
+Paso n: Validar que el campo tenga un largo de 1 caracteres.</t>
         </is>
       </c>
       <c r="D315" t="inlineStr">
@@ -8307,7 +8307,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>CP 01 - Campo CVV2Result - Largo del Campo</t>
+          <t>CP 0315 - Campo CVV2Result - Tipo de dato</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -8315,7 +8315,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo tenga un largo de 1 caracteres.</t>
+Paso n: Validar que el campo sea Alfanumérico.</t>
         </is>
       </c>
       <c r="D316" t="inlineStr">
@@ -8332,7 +8332,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>CP 02 - Campo CVV2Result - Tipo de dato</t>
+          <t>CP 0316 - Campo CVV2 Present Ind - Largo del Campo</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -8340,7 +8340,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo sea Alfanumérico.</t>
+Paso n: Validar que el campo tenga un largo de 1 caracteres.</t>
         </is>
       </c>
       <c r="D317" t="inlineStr">
@@ -8357,7 +8357,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>CP 01 - Campo CVV2 Present Ind - Largo del Campo</t>
+          <t>CP 0317 - Campo CVV2 Present Ind - Tipo de dato</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -8365,7 +8365,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo tenga un largo de 1 caracteres.</t>
+Paso n: Validar que el campo sea Alfanumérico.</t>
         </is>
       </c>
       <c r="D318" t="inlineStr">
@@ -8382,7 +8382,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>CP 02 - Campo CVV2 Present Ind - Tipo de dato</t>
+          <t>CP 0318 - Campo CAVVResultsCode - Largo del Campo</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -8390,7 +8390,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo sea Alfanumérico.</t>
+Paso n: Validar que el campo tenga un largo de 1 caracteres.</t>
         </is>
       </c>
       <c r="D319" t="inlineStr">
@@ -8407,7 +8407,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>CP 01 - Campo CAVVResultsCode - Largo del Campo</t>
+          <t>CP 0319 - Campo CAVVResultsCode - Tipo de dato</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -8415,7 +8415,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo tenga un largo de 1 caracteres.</t>
+Paso n: Validar que el campo sea Alfanumérico.</t>
         </is>
       </c>
       <c r="D320" t="inlineStr">
@@ -8432,7 +8432,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>CP 02 - Campo CAVVResultsCode - Tipo de dato</t>
+          <t>CP 0320 - Campo Partial Authotization /Replacement Amounts - Largo del Campo</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -8440,7 +8440,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo sea Alfanumérico.</t>
+Paso n: Validar que el campo tenga un largo de 42 caracteres.</t>
         </is>
       </c>
       <c r="D321" t="inlineStr">
@@ -8457,7 +8457,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>CP 01 - Campo Partial Authotization /Replacement Amounts - Largo del Campo</t>
+          <t>CP 0321 - Campo Partial Authotization /Replacement Amounts - Tipo de dato</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -8465,7 +8465,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo tenga un largo de 42 caracteres.</t>
+Paso n: Validar que el campo sea Alfanumérico.</t>
         </is>
       </c>
       <c r="D322" t="inlineStr">
@@ -8482,7 +8482,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>CP 02 - Campo Partial Authotization /Replacement Amounts - Tipo de dato</t>
+          <t>CP 0322 - Campo ATC Application Transaction Counter (ATC_autorizacion)  - Largo del Campo</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -8490,7 +8490,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo sea Alfanumérico.</t>
+Paso n: Validar que el campo tenga un largo de 5 caracteres.</t>
         </is>
       </c>
       <c r="D323" t="inlineStr">
@@ -8507,7 +8507,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>CP 01 - Campo ATC Application Transaction Counter (ATC_autorizacion)  - Largo del Campo</t>
+          <t>CP 0323 - Campo ATC Application Transaction Counter (ATC_autorizacion)  - Tipo de dato</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -8515,7 +8515,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo tenga un largo de 5 caracteres.</t>
+Paso n: Validar que el campo sea Numérico.</t>
         </is>
       </c>
       <c r="D324" t="inlineStr">
@@ -8532,7 +8532,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>CP 02 - Campo ATC Application Transaction Counter (ATC_autorizacion)  - Tipo de dato</t>
+          <t>CP 0324 - Campo Card Authentication Results Code  (ARQC) - Largo del Campo</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -8540,7 +8540,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo sea Numérico.</t>
+Paso n: Validar que el campo tenga un largo de 1 caracteres.</t>
         </is>
       </c>
       <c r="D325" t="inlineStr">
@@ -8557,7 +8557,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>CP 01 - Campo Card Authentication Results Code  (ARQC) - Largo del Campo</t>
+          <t>CP 0325 - Campo Card Authentication Results Code  (ARQC) - Tipo de dato</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -8565,7 +8565,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo tenga un largo de 1 caracteres.</t>
+Paso n: Validar que el campo sea Alfanumérico.</t>
         </is>
       </c>
       <c r="D326" t="inlineStr">
@@ -8582,7 +8582,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>CP 02 - Campo Card Authentication Results Code  (ARQC) - Tipo de dato</t>
+          <t>CP 0326 - Campo  Amount, Transaction Fee - Largo del Campo</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -8590,7 +8590,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo sea Alfanumérico.</t>
+Paso n: Validar que el campo tenga un largo de 9 caracteres.</t>
         </is>
       </c>
       <c r="D327" t="inlineStr">
@@ -8607,7 +8607,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>CP 01 - Campo  Amount, Transaction Fee - Largo del Campo</t>
+          <t>CP 0327 - Campo  Amount, Transaction Fee - Tipo de dato</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -8615,7 +8615,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo tenga un largo de 9 caracteres.</t>
+Paso n: Validar que el campo sea Alfanumérico.</t>
         </is>
       </c>
       <c r="D328" t="inlineStr">
@@ -8632,7 +8632,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>CP 02 - Campo  Amount, Transaction Fee - Tipo de dato</t>
+          <t>CP 0328 - Campo Product ID - Largo del Campo</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -8640,7 +8640,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo sea Alfanumérico.</t>
+Paso n: Validar que el campo tenga un largo de 4 caracteres.</t>
         </is>
       </c>
       <c r="D329" t="inlineStr">
@@ -8657,7 +8657,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>CP 01 - Campo Product ID - Largo del Campo</t>
+          <t>CP 0329 - Campo Product ID - Tipo de dato</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -8665,7 +8665,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo tenga un largo de 4 caracteres.</t>
+Paso n: Validar que el campo sea Alfanumérico.</t>
         </is>
       </c>
       <c r="D330" t="inlineStr">
@@ -8682,7 +8682,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>CP 02 - Campo Product ID - Tipo de dato</t>
+          <t>CP 0330 - Campo CVV/iCVV Results Code - Largo del Campo</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
@@ -8690,7 +8690,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo sea Alfanumérico.</t>
+Paso n: Validar que el campo tenga un largo de 1 caracteres.</t>
         </is>
       </c>
       <c r="D331" t="inlineStr">
@@ -8707,7 +8707,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>CP 01 - Campo CVV/iCVV Results Code - Largo del Campo</t>
+          <t>CP 0331 - Campo CVV/iCVV Results Code - Tipo de dato</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -8715,7 +8715,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo tenga un largo de 1 caracteres.</t>
+Paso n: Validar que el campo sea Alfanumérico.</t>
         </is>
       </c>
       <c r="D332" t="inlineStr">
@@ -8732,7 +8732,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>CP 02 - Campo CVV/iCVV Results Code - Tipo de dato</t>
+          <t>CP 0332 - Campo Verified by Visa /Authentication Results Code - Largo del Campo</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -8740,7 +8740,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo sea Alfanumérico.</t>
+Paso n: Validar que el campo tenga un largo de 1 caracteres.</t>
         </is>
       </c>
       <c r="D333" t="inlineStr">
@@ -8757,7 +8757,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>CP 01 - Campo Verified by Visa /Authentication Results Code - Largo del Campo</t>
+          <t>CP 0333 - Campo Verified by Visa /Authentication Results Code - Tipo de dato</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -8765,7 +8765,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo tenga un largo de 1 caracteres.</t>
+Paso n: Validar que el campo sea Alfanumérico.</t>
         </is>
       </c>
       <c r="D334" t="inlineStr">
@@ -8782,7 +8782,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>CP 02 - Campo Verified by Visa /Authentication Results Code - Tipo de dato</t>
+          <t>CP 0334 - Campo  POS Environment - Largo del Campo</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -8790,7 +8790,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo sea Alfanumérico.</t>
+Paso n: Validar que el campo tenga un largo de 1 caracteres.</t>
         </is>
       </c>
       <c r="D335" t="inlineStr">
@@ -8807,7 +8807,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>CP 01 - Campo  POS Environment - Largo del Campo</t>
+          <t>CP 0335 - Campo  POS Environment - Tipo de dato</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -8815,7 +8815,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo tenga un largo de 1 caracteres.</t>
+Paso n: Validar que el campo sea Alfanumérico.</t>
         </is>
       </c>
       <c r="D336" t="inlineStr">
@@ -8832,7 +8832,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>CP 02 - Campo  POS Environment - Tipo de dato</t>
+          <t>CP 0336 - Campo ByteF - Largo del Campo</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
@@ -8840,7 +8840,7 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo sea Alfanumérico.</t>
+Paso n: Validar que el campo tenga un largo de 5 caracteres.</t>
         </is>
       </c>
       <c r="D337" t="inlineStr">
@@ -8857,7 +8857,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>CP 01 - Campo ByteF - Largo del Campo</t>
+          <t>CP 0337 - Campo ByteF - Tipo de dato</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
@@ -8865,35 +8865,10 @@
           <t>Paso 1: Definir paso 1
 Paso 2: Definir paso 2
 Paso 3: Definir paso 3
-Paso n: Validar que el campo tenga un largo de 5 caracteres.</t>
+Paso n: Validar que el campo sea Alfanumérico.</t>
         </is>
       </c>
       <c r="D338" t="inlineStr">
-        <is>
-          <t>El campo debe cumplir con el requisito de validación.</t>
-        </is>
-      </c>
-    </row>
-    <row r="339">
-      <c r="A339" t="inlineStr">
-        <is>
-          <t>RF-01-Trama 8650</t>
-        </is>
-      </c>
-      <c r="B339" t="inlineStr">
-        <is>
-          <t>CP 02 - Campo ByteF - Tipo de dato</t>
-        </is>
-      </c>
-      <c r="C339" t="inlineStr">
-        <is>
-          <t>Paso 1: Definir paso 1
-Paso 2: Definir paso 2
-Paso 3: Definir paso 3
-Paso n: Validar que el campo sea Alfanumérico.</t>
-        </is>
-      </c>
-      <c r="D339" t="inlineStr">
         <is>
           <t>El campo debe cumplir con el requisito de validación.</t>
         </is>
